--- a/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.006682875396256</v>
+      </c>
+      <c r="D3">
+        <v>0.9984165035119585</v>
+      </c>
+      <c r="E3">
         <v>0.9953896846828976</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.00139239860854</v>
+      </c>
+      <c r="G3">
         <v>1.006682875396256</v>
       </c>
-      <c r="E3">
-        <v>0.9984165035119585</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.9982808242280795</v>
+      </c>
+      <c r="I3">
+        <v>1.004360347779996</v>
+      </c>
+      <c r="J3">
         <v>0.9953896846828976</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>0.9953896846828976</v>
+      </c>
+      <c r="L3">
+        <v>0.9975285299093517</v>
+      </c>
+      <c r="M3">
         <v>1.00144123199174</v>
-      </c>
-      <c r="H3">
-        <v>0.9975285299093517</v>
-      </c>
-      <c r="I3">
-        <v>0.9953896846828976</v>
-      </c>
-      <c r="J3">
-        <v>1.006682875396256</v>
-      </c>
-      <c r="K3">
-        <v>1.00139239860854</v>
-      </c>
-      <c r="L3">
-        <v>0.9982808242280793</v>
-      </c>
-      <c r="M3">
-        <v>1.004360347779996</v>
       </c>
       <c r="N3">
         <v>0.9953896846828976</v>
@@ -761,10 +713,10 @@
         <v>0.99946399605315</v>
       </c>
       <c r="W3">
-        <v>1.000436549513602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.000436549513603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.012901733186595</v>
+      </c>
+      <c r="D4">
+        <v>0.9969422340454663</v>
+      </c>
+      <c r="E4">
         <v>0.9911007662758088</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.00268765540198</v>
+      </c>
+      <c r="G4">
         <v>1.012901733186595</v>
       </c>
-      <c r="E4">
-        <v>0.9969422340454663</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.9966814192471165</v>
+      </c>
+      <c r="I4">
+        <v>1.008417812759083</v>
+      </c>
+      <c r="J4">
         <v>0.9911007662758088</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>0.9911007662758088</v>
+      </c>
+      <c r="L4">
+        <v>0.995228589285313</v>
+      </c>
+      <c r="M4">
         <v>1.00278235006737</v>
-      </c>
-      <c r="H4">
-        <v>0.995228589285313</v>
-      </c>
-      <c r="I4">
-        <v>0.9911007662758088</v>
-      </c>
-      <c r="J4">
-        <v>1.012901733186595</v>
-      </c>
-      <c r="K4">
-        <v>1.00268765540198</v>
-      </c>
-      <c r="L4">
-        <v>0.9966814192471165</v>
-      </c>
-      <c r="M4">
-        <v>1.008417812759083</v>
       </c>
       <c r="N4">
         <v>0.9911007662758088</v>
@@ -835,7 +787,7 @@
         <v>1.000842820033592</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.024734951128698</v>
+      </c>
+      <c r="D5">
+        <v>0.9941233099450955</v>
+      </c>
+      <c r="E5">
         <v>0.9829641579041317</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.005143509676645</v>
+      </c>
+      <c r="G5">
         <v>1.024734951128698</v>
       </c>
-      <c r="E5">
-        <v>0.9941233099450955</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.9936456780729046</v>
+      </c>
+      <c r="I5">
+        <v>1.016135983387051</v>
+      </c>
+      <c r="J5">
         <v>0.9829641579041317</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>0.9829641579041317</v>
+      </c>
+      <c r="L5">
+        <v>0.9908508314233764</v>
+      </c>
+      <c r="M5">
         <v>1.005333407110872</v>
-      </c>
-      <c r="H5">
-        <v>0.9908508314233764</v>
-      </c>
-      <c r="I5">
-        <v>0.9829641579041317</v>
-      </c>
-      <c r="J5">
-        <v>1.024734951128698</v>
-      </c>
-      <c r="K5">
-        <v>1.005143509676645</v>
-      </c>
-      <c r="L5">
-        <v>0.9936456780729046</v>
-      </c>
-      <c r="M5">
-        <v>1.016135983387051</v>
       </c>
       <c r="N5">
         <v>0.9829641579041317</v>
@@ -906,7 +858,7 @@
         <v>1.001616478581097</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.036283887396432</v>
+      </c>
+      <c r="D6">
+        <v>0.9913716744227776</v>
+      </c>
+      <c r="E6">
         <v>0.9750237980504438</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.007540079025196</v>
+      </c>
+      <c r="G6">
         <v>1.036283887396432</v>
       </c>
-      <c r="E6">
-        <v>0.9913716744227776</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0.9906831080069801</v>
+      </c>
+      <c r="I6">
+        <v>1.023668643220842</v>
+      </c>
+      <c r="J6">
         <v>0.9750237980504438</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>0.9750237980504438</v>
+      </c>
+      <c r="L6">
+        <v>0.9865782086470726</v>
+      </c>
+      <c r="M6">
         <v>1.007823148055421</v>
-      </c>
-      <c r="H6">
-        <v>0.9865782086470726</v>
-      </c>
-      <c r="I6">
-        <v>0.9750237980504438</v>
-      </c>
-      <c r="J6">
-        <v>1.036283887396432</v>
-      </c>
-      <c r="K6">
-        <v>1.007540079025196</v>
-      </c>
-      <c r="L6">
-        <v>0.9906831080069801</v>
-      </c>
-      <c r="M6">
-        <v>1.023668643220843</v>
       </c>
       <c r="N6">
         <v>0.9750237980504438</v>
@@ -977,7 +929,7 @@
         <v>1.002371568353146</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000525976109369</v>
+      </c>
+      <c r="D7">
+        <v>0.9998600016683996</v>
+      </c>
+      <c r="E7">
         <v>0.9996644651425749</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1.000099753724296</v>
+      </c>
+      <c r="G7">
         <v>1.000525976109369</v>
       </c>
-      <c r="E7">
-        <v>0.9998600016683996</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.9998732303907579</v>
+      </c>
+      <c r="I7">
+        <v>1.000340521277318</v>
+      </c>
+      <c r="J7">
         <v>0.9996644651425749</v>
       </c>
-      <c r="G7">
+      <c r="K7">
+        <v>0.9996644651425749</v>
+      </c>
+      <c r="L7">
+        <v>0.9998038682971496</v>
+      </c>
+      <c r="M7">
         <v>1.000112508064077</v>
-      </c>
-      <c r="H7">
-        <v>0.9998038682971496</v>
-      </c>
-      <c r="I7">
-        <v>0.9996644651425749</v>
-      </c>
-      <c r="J7">
-        <v>1.000525976109369</v>
-      </c>
-      <c r="K7">
-        <v>1.000099753724296</v>
-      </c>
-      <c r="L7">
-        <v>0.9998732303907579</v>
-      </c>
-      <c r="M7">
-        <v>1.000340521277318</v>
       </c>
       <c r="N7">
         <v>0.9996644651425749</v>
@@ -1042,13 +994,13 @@
         <v>1.000040737746105</v>
       </c>
       <c r="V7">
-        <v>0.9999654832253991</v>
+        <v>0.9999654832253994</v>
       </c>
       <c r="W7">
         <v>1.000035040584243</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,40 +1008,40 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990805442126508</v>
+        <v>1.00143873958642</v>
       </c>
       <c r="D8">
+        <v>0.9996179798461196</v>
+      </c>
+      <c r="E8">
+        <v>0.9990805442126504</v>
+      </c>
+      <c r="F8">
+        <v>1.000273454597296</v>
+      </c>
+      <c r="G8">
         <v>1.00143873958642</v>
       </c>
-      <c r="E8">
-        <v>0.9996179798461196</v>
-      </c>
-      <c r="F8">
-        <v>0.9990805442126508</v>
-      </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.9996527232188545</v>
+      </c>
+      <c r="I8">
+        <v>1.000931611101194</v>
+      </c>
+      <c r="J8">
+        <v>0.9990805442126504</v>
+      </c>
+      <c r="K8">
+        <v>0.9990805442126504</v>
+      </c>
+      <c r="L8">
+        <v>0.9994636066672875</v>
+      </c>
+      <c r="M8">
         <v>1.000307807994895</v>
       </c>
-      <c r="H8">
-        <v>0.9994636066672875</v>
-      </c>
-      <c r="I8">
-        <v>0.9990805442126508</v>
-      </c>
-      <c r="J8">
-        <v>1.00143873958642</v>
-      </c>
-      <c r="K8">
-        <v>1.000273454597296</v>
-      </c>
-      <c r="L8">
-        <v>0.9996527232188546</v>
-      </c>
-      <c r="M8">
-        <v>1.000931611101194</v>
-      </c>
       <c r="N8">
-        <v>0.9990805442126508</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="O8">
         <v>0.9996179798461196</v>
@@ -1098,7 +1050,7 @@
         <v>1.00052835971627</v>
       </c>
       <c r="Q8">
-        <v>0.9999628939205073</v>
+        <v>0.9999628939205072</v>
       </c>
       <c r="R8">
         <v>1.000045754548397</v>
@@ -1113,13 +1065,13 @@
         <v>1.000111267910021</v>
       </c>
       <c r="V8">
-        <v>0.9999051231705472</v>
+        <v>0.999905123170547</v>
       </c>
       <c r="W8">
         <v>1.00009580840309</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.00208525203658</v>
+      </c>
+      <c r="D9">
+        <v>0.9994464950446839</v>
+      </c>
+      <c r="E9">
         <v>0.9986670582539728</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000396449501938</v>
+      </c>
+      <c r="G9">
         <v>1.00208525203658</v>
       </c>
-      <c r="E9">
-        <v>0.9994464950446839</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9994965709590802</v>
+      </c>
+      <c r="I9">
+        <v>1.001350270821833</v>
+      </c>
+      <c r="J9">
         <v>0.9986670582539728</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>0.9986670582539728</v>
+      </c>
+      <c r="L9">
+        <v>0.9992225920188723</v>
+      </c>
+      <c r="M9">
         <v>1.000446135687592</v>
-      </c>
-      <c r="H9">
-        <v>0.9992225920188723</v>
-      </c>
-      <c r="I9">
-        <v>0.9986670582539728</v>
-      </c>
-      <c r="J9">
-        <v>1.00208525203658</v>
-      </c>
-      <c r="K9">
-        <v>1.000396449501938</v>
-      </c>
-      <c r="L9">
-        <v>0.9994965709590802</v>
-      </c>
-      <c r="M9">
-        <v>1.001350270821833</v>
       </c>
       <c r="N9">
         <v>0.9986670582539728</v>
@@ -1190,7 +1142,7 @@
         <v>1.000138853040569</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,40 +1150,40 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9971688914568244</v>
+        <v>1.004426127586585</v>
       </c>
       <c r="D10">
+        <v>0.9988261652021301</v>
+      </c>
+      <c r="E10">
+        <v>0.9971688914568246</v>
+      </c>
+      <c r="F10">
+        <v>1.000842154597751</v>
+      </c>
+      <c r="G10">
         <v>1.004426127586585</v>
       </c>
-      <c r="E10">
-        <v>0.9988261652021301</v>
-      </c>
-      <c r="F10">
-        <v>0.9971688914568244</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.9989308582610779</v>
+      </c>
+      <c r="I10">
+        <v>1.002866243368808</v>
+      </c>
+      <c r="J10">
+        <v>0.9971688914568246</v>
+      </c>
+      <c r="K10">
+        <v>0.9971688914568246</v>
+      </c>
+      <c r="L10">
+        <v>0.9983499956608086</v>
+      </c>
+      <c r="M10">
         <v>1.000947023978623</v>
       </c>
-      <c r="H10">
-        <v>0.9983499956608086</v>
-      </c>
-      <c r="I10">
-        <v>0.9971688914568244</v>
-      </c>
-      <c r="J10">
-        <v>1.004426127586585</v>
-      </c>
-      <c r="K10">
-        <v>1.000842154597751</v>
-      </c>
-      <c r="L10">
-        <v>0.9989308582610781</v>
-      </c>
-      <c r="M10">
-        <v>1.002866243368808</v>
-      </c>
       <c r="N10">
-        <v>0.9971688914568244</v>
+        <v>0.9971688914568246</v>
       </c>
       <c r="O10">
         <v>0.9988261652021301</v>
@@ -1252,16 +1204,16 @@
         <v>1.000140394748513</v>
       </c>
       <c r="U10">
-        <v>1.00034205205604</v>
+        <v>1.000342052056041</v>
       </c>
       <c r="V10">
-        <v>0.9997074199361972</v>
+        <v>0.9997074199361975</v>
       </c>
       <c r="W10">
         <v>1.000294682514076</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.007548519621448</v>
+      </c>
+      <c r="D11">
+        <v>0.9979947350101617</v>
+      </c>
+      <c r="E11">
         <v>0.9951776602471509</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.001434100458395</v>
+      </c>
+      <c r="G11">
         <v>1.007548519621448</v>
       </c>
-      <c r="E11">
-        <v>0.9979947350101617</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9981784997826044</v>
+      </c>
+      <c r="I11">
+        <v>1.004887641005165</v>
+      </c>
+      <c r="J11">
         <v>0.9951776602471509</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>0.9951776602471509</v>
+      </c>
+      <c r="L11">
+        <v>0.9971856522094567</v>
+      </c>
+      <c r="M11">
         <v>1.001614897318392</v>
-      </c>
-      <c r="H11">
-        <v>0.9971856522094567</v>
-      </c>
-      <c r="I11">
-        <v>0.9951776602471509</v>
-      </c>
-      <c r="J11">
-        <v>1.007548519621448</v>
-      </c>
-      <c r="K11">
-        <v>1.001434100458395</v>
-      </c>
-      <c r="L11">
-        <v>0.9981784997826044</v>
-      </c>
-      <c r="M11">
-        <v>1.004887641005165</v>
       </c>
       <c r="N11">
         <v>0.9951776602471509</v>
@@ -1332,7 +1284,7 @@
         <v>1.000502713206597</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="D12">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="E12">
         <v>1.053561470836624</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9837156379439094</v>
+      </c>
+      <c r="G12">
         <v>0.92505585301876</v>
       </c>
-      <c r="E12">
-        <v>1.016711760342585</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="I12">
+        <v>0.9509203947465752</v>
+      </c>
+      <c r="J12">
         <v>1.053561470836624</v>
       </c>
-      <c r="G12">
-        <v>0.9837746331294551</v>
-      </c>
-      <c r="H12">
+      <c r="K12">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="L12">
         <v>1.027606115002572</v>
       </c>
-      <c r="I12">
-        <v>1.053561470836624</v>
-      </c>
-      <c r="J12">
-        <v>0.92505585301876</v>
-      </c>
-      <c r="K12">
-        <v>0.9837156379439094</v>
-      </c>
-      <c r="L12">
-        <v>1.019860629219225</v>
-      </c>
       <c r="M12">
-        <v>0.9509203947465752</v>
+        <v>0.9837746331294553</v>
       </c>
       <c r="N12">
         <v>1.053561470836624</v>
@@ -1394,7 +1346,7 @@
         <v>0.9984430280659896</v>
       </c>
       <c r="U12">
-        <v>0.994775929331856</v>
+        <v>0.9947759293318561</v>
       </c>
       <c r="V12">
         <v>1.00653303763281</v>
@@ -1403,7 +1355,7 @@
         <v>0.9951508117799632</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="D13">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="E13">
         <v>1.012112248171304</v>
       </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.9964549868796057</v>
+      </c>
+      <c r="G13">
         <v>0.9796151116138745</v>
       </c>
-      <c r="E13">
-        <v>1.005927421620521</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="I13">
+        <v>0.98688954647551</v>
+      </c>
+      <c r="J13">
         <v>1.012112248171304</v>
       </c>
-      <c r="G13">
+      <c r="K13">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="L13">
+        <v>1.007653939649781</v>
+      </c>
+      <c r="M13">
         <v>0.9956697340406946</v>
-      </c>
-      <c r="H13">
-        <v>1.007653939649781</v>
-      </c>
-      <c r="I13">
-        <v>1.012112248171304</v>
-      </c>
-      <c r="J13">
-        <v>0.9796151116138745</v>
-      </c>
-      <c r="K13">
-        <v>0.9964549868796057</v>
-      </c>
-      <c r="L13">
-        <v>1.004634448438814</v>
-      </c>
-      <c r="M13">
-        <v>0.9868895464755102</v>
       </c>
       <c r="N13">
         <v>1.012112248171304</v>
@@ -1474,7 +1426,7 @@
         <v>0.9986196796112632</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="D14">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="E14">
         <v>1.014747592515798</v>
       </c>
-      <c r="D14">
+      <c r="F14">
+        <v>0.9961414537404596</v>
+      </c>
+      <c r="G14">
         <v>0.963735439783223</v>
       </c>
-      <c r="E14">
-        <v>1.014369839509032</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="I14">
+        <v>0.9773388722374375</v>
+      </c>
+      <c r="J14">
         <v>1.014747592515798</v>
       </c>
-      <c r="G14">
+      <c r="K14">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="L14">
+        <v>1.014017815243453</v>
+      </c>
+      <c r="M14">
         <v>0.9925263924631762</v>
-      </c>
-      <c r="H14">
-        <v>1.014017815243453</v>
-      </c>
-      <c r="I14">
-        <v>1.014747592515798</v>
-      </c>
-      <c r="J14">
-        <v>0.963735439783223</v>
-      </c>
-      <c r="K14">
-        <v>0.9961414537404594</v>
-      </c>
-      <c r="L14">
-        <v>1.006119641121082</v>
-      </c>
-      <c r="M14">
-        <v>0.9773388722374375</v>
       </c>
       <c r="N14">
         <v>1.014747592515798</v>
@@ -1542,10 +1494,10 @@
         <v>1.000025371357405</v>
       </c>
       <c r="W14">
-        <v>0.9973746308267075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9973746308267076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="D15">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="E15">
         <v>1.008429562082902</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9972331013818057</v>
+      </c>
+      <c r="G15">
         <v>0.993306383595565</v>
       </c>
-      <c r="E15">
-        <v>0.9994418808283211</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="I15">
+        <v>0.9952613996017942</v>
+      </c>
+      <c r="J15">
         <v>1.008429562082902</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="L15">
+        <v>1.002250371084115</v>
+      </c>
+      <c r="M15">
         <v>0.9984275820655333</v>
-      </c>
-      <c r="H15">
-        <v>1.002250371084114</v>
-      </c>
-      <c r="I15">
-        <v>1.008429562082902</v>
-      </c>
-      <c r="J15">
-        <v>0.993306383595565</v>
-      </c>
-      <c r="K15">
-        <v>0.9972331013818057</v>
-      </c>
-      <c r="L15">
-        <v>1.002913139413011</v>
-      </c>
-      <c r="M15">
-        <v>0.9952613996017942</v>
       </c>
       <c r="N15">
         <v>1.008429562082902</v>
@@ -1616,7 +1568,7 @@
         <v>0.9996579275066309</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999991536683785</v>
+        <v>1.130524996851948</v>
       </c>
       <c r="D16">
-        <v>1.000033541924723</v>
+        <v>0.9688618422345093</v>
       </c>
       <c r="E16">
-        <v>0.9999837952936808</v>
+        <v>0.9103289467181556</v>
       </c>
       <c r="F16">
-        <v>0.999991536683785</v>
+        <v>1.02706057744716</v>
       </c>
       <c r="G16">
-        <v>1.000006736985543</v>
+        <v>1.130524996851948</v>
       </c>
       <c r="H16">
-        <v>0.9999867274654136</v>
+        <v>0.9665392574862032</v>
       </c>
       <c r="I16">
-        <v>0.999991536683785</v>
+        <v>1.085126632396414</v>
       </c>
       <c r="J16">
-        <v>1.000033541924723</v>
+        <v>0.9103289467181556</v>
       </c>
       <c r="K16">
-        <v>1.0000017052397</v>
+        <v>0.9103289467181556</v>
       </c>
       <c r="L16">
-        <v>0.9999959583912493</v>
+        <v>0.9517070022372627</v>
       </c>
       <c r="M16">
-        <v>1.000020456493211</v>
+        <v>1.028136431014613</v>
       </c>
       <c r="N16">
-        <v>0.999991536683785</v>
+        <v>0.9103289467181556</v>
       </c>
       <c r="O16">
-        <v>0.9999837952936808</v>
+        <v>0.9688618422345093</v>
       </c>
       <c r="P16">
-        <v>1.000008668609202</v>
+        <v>1.049693419543229</v>
       </c>
       <c r="Q16">
-        <v>0.9999952661396118</v>
+        <v>0.9984991366245615</v>
       </c>
       <c r="R16">
-        <v>1.000002957967396</v>
+        <v>1.003238595268204</v>
       </c>
       <c r="S16">
-        <v>1.000008024734649</v>
+        <v>1.042507756700357</v>
       </c>
       <c r="T16">
-        <v>1.000002957967396</v>
+        <v>1.003238595268204</v>
       </c>
       <c r="U16">
-        <v>1.000003902721933</v>
+        <v>1.009463054204807</v>
       </c>
       <c r="V16">
-        <v>1.000001429514303</v>
+        <v>0.9896362327074764</v>
       </c>
       <c r="W16">
-        <v>1.000002557309663</v>
+        <v>1.008535710798283</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9996090141731878</v>
+        <v>1.107222667116434</v>
       </c>
       <c r="D17">
-        <v>1.000591287090839</v>
+        <v>0.9739536299777377</v>
       </c>
       <c r="E17">
-        <v>0.9998503732997871</v>
+        <v>0.9271683574266862</v>
       </c>
       <c r="F17">
-        <v>0.9996090141731878</v>
+        <v>1.021930483548339</v>
       </c>
       <c r="G17">
-        <v>1.000126944775042</v>
+        <v>1.107222667116434</v>
       </c>
       <c r="H17">
-        <v>0.9997803288556469</v>
+        <v>0.972772502893376</v>
       </c>
       <c r="I17">
-        <v>0.9996090141731878</v>
+        <v>1.069848269257905</v>
       </c>
       <c r="J17">
-        <v>1.000591287090839</v>
+        <v>0.9271683574266862</v>
       </c>
       <c r="K17">
-        <v>1.000117103676048</v>
+        <v>0.9271683574266862</v>
       </c>
       <c r="L17">
-        <v>0.9998531808991783</v>
+        <v>0.9602795951675521</v>
       </c>
       <c r="M17">
-        <v>1.000384147178883</v>
+        <v>1.023085216218858</v>
       </c>
       <c r="N17">
-        <v>0.9996090141731878</v>
+        <v>0.9271683574266862</v>
       </c>
       <c r="O17">
-        <v>0.9998503732997871</v>
+        <v>0.9739536299777377</v>
       </c>
       <c r="P17">
-        <v>1.000220830195313</v>
+        <v>1.040588148547086</v>
       </c>
       <c r="Q17">
-        <v>0.9999886590374145</v>
+        <v>0.9985194230982977</v>
       </c>
       <c r="R17">
-        <v>1.000016891521271</v>
+        <v>1.002781551506953</v>
       </c>
       <c r="S17">
-        <v>1.000189535055223</v>
+        <v>1.03475383777101</v>
       </c>
       <c r="T17">
-        <v>1.000016891521271</v>
+        <v>1.002781551506952</v>
       </c>
       <c r="U17">
-        <v>1.000044404834714</v>
+        <v>1.007857467684929</v>
       </c>
       <c r="V17">
-        <v>0.9999573267024088</v>
+        <v>0.9917196456332803</v>
       </c>
       <c r="W17">
-        <v>1.000039047493577</v>
+        <v>1.007032590200861</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985922663527032</v>
+        <v>1.06050204453907</v>
       </c>
       <c r="D18">
-        <v>1.002064200611506</v>
+        <v>0.9841762082570991</v>
       </c>
       <c r="E18">
-        <v>0.9995017226787547</v>
+        <v>0.9609066894621595</v>
       </c>
       <c r="F18">
-        <v>0.9985922663527032</v>
+        <v>1.011653509306831</v>
       </c>
       <c r="G18">
-        <v>1.000444614924034</v>
+        <v>1.06050204453907</v>
       </c>
       <c r="H18">
-        <v>0.9992356484921889</v>
+        <v>0.9852624223500294</v>
       </c>
       <c r="I18">
-        <v>0.9985922663527032</v>
+        <v>1.039217878727045</v>
       </c>
       <c r="J18">
-        <v>1.002064200611506</v>
+        <v>0.9609066894621595</v>
       </c>
       <c r="K18">
-        <v>1.000424218208672</v>
+        <v>0.9609066894621595</v>
       </c>
       <c r="L18">
-        <v>0.9994740751356019</v>
+        <v>0.977468875279923</v>
       </c>
       <c r="M18">
-        <v>1.001345234016116</v>
+        <v>1.012958471254269</v>
       </c>
       <c r="N18">
-        <v>0.9985922663527032</v>
+        <v>0.9609066894621595</v>
       </c>
       <c r="O18">
-        <v>0.9995017226787547</v>
+        <v>0.9841762082570991</v>
       </c>
       <c r="P18">
-        <v>1.00078296164513</v>
+        <v>1.022339126398085</v>
       </c>
       <c r="Q18">
-        <v>0.9999731688013942</v>
+        <v>0.9985673397556842</v>
       </c>
       <c r="R18">
-        <v>1.000052729880988</v>
+        <v>1.001861647419443</v>
       </c>
       <c r="S18">
-        <v>1.000670179404765</v>
+        <v>1.019212241350146</v>
       </c>
       <c r="T18">
-        <v>1.000052729880988</v>
+        <v>1.001861647419443</v>
       </c>
       <c r="U18">
-        <v>1.000150701141749</v>
+        <v>1.004635853378149</v>
       </c>
       <c r="V18">
-        <v>0.9998390141839399</v>
+        <v>0.9958900205949515</v>
       </c>
       <c r="W18">
-        <v>1.000135247552447</v>
+        <v>1.004018262397053</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.066256708257381</v>
+      </c>
+      <c r="D19">
+        <v>0.9824953055230498</v>
+      </c>
+      <c r="E19">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="F19">
+        <v>1.012649413484522</v>
+      </c>
+      <c r="G19">
+        <v>1.066256708257381</v>
+      </c>
+      <c r="H19">
+        <v>0.9839583316255532</v>
+      </c>
+      <c r="I19">
+        <v>1.042917652643766</v>
+      </c>
+      <c r="J19">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="K19">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="L19">
+        <v>0.9753073685155522</v>
+      </c>
+      <c r="M19">
+        <v>1.01418045472506</v>
+      </c>
+      <c r="N19">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="O19">
+        <v>0.9824953055230498</v>
+      </c>
+      <c r="P19">
+        <v>1.024376006890215</v>
+      </c>
+      <c r="Q19">
+        <v>0.998337880124055</v>
+      </c>
+      <c r="R19">
+        <v>1.002084300615072</v>
+      </c>
+      <c r="S19">
+        <v>1.02097748950183</v>
+      </c>
+      <c r="T19">
+        <v>1.002084300615072</v>
+      </c>
+      <c r="U19">
+        <v>1.005108339142569</v>
+      </c>
+      <c r="V19">
+        <v>0.9955868489270119</v>
+      </c>
+      <c r="W19">
+        <v>1.004408265354959</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000033541924723</v>
+      </c>
+      <c r="D20">
+        <v>0.9999837952936808</v>
+      </c>
+      <c r="E20">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="F20">
+        <v>1.0000017052397</v>
+      </c>
+      <c r="G20">
+        <v>1.000033541924723</v>
+      </c>
+      <c r="H20">
+        <v>0.9999959583912493</v>
+      </c>
+      <c r="I20">
+        <v>1.000020456493211</v>
+      </c>
+      <c r="J20">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="K20">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="L20">
+        <v>0.9999867274654135</v>
+      </c>
+      <c r="M20">
+        <v>1.000006736985543</v>
+      </c>
+      <c r="N20">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="O20">
+        <v>0.9999837952936808</v>
+      </c>
+      <c r="P20">
+        <v>1.000008668609202</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999952661396118</v>
+      </c>
+      <c r="R20">
+        <v>1.000002957967396</v>
+      </c>
+      <c r="S20">
+        <v>1.000008024734649</v>
+      </c>
+      <c r="T20">
+        <v>1.000002957967396</v>
+      </c>
+      <c r="U20">
+        <v>1.000003902721933</v>
+      </c>
+      <c r="V20">
+        <v>1.000001429514303</v>
+      </c>
+      <c r="W20">
+        <v>1.000002557309663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.00059128709084</v>
+      </c>
+      <c r="D21">
+        <v>0.9998503732997871</v>
+      </c>
+      <c r="E21">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="F21">
+        <v>1.000117103676048</v>
+      </c>
+      <c r="G21">
+        <v>1.00059128709084</v>
+      </c>
+      <c r="H21">
+        <v>0.9998531808991783</v>
+      </c>
+      <c r="I21">
+        <v>1.000384147178883</v>
+      </c>
+      <c r="J21">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="K21">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="L21">
+        <v>0.9997803288556475</v>
+      </c>
+      <c r="M21">
+        <v>1.000126944775042</v>
+      </c>
+      <c r="N21">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="O21">
+        <v>0.9998503732997871</v>
+      </c>
+      <c r="P21">
+        <v>1.000220830195313</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999886590374145</v>
+      </c>
+      <c r="R21">
+        <v>1.000016891521271</v>
+      </c>
+      <c r="S21">
+        <v>1.000189535055223</v>
+      </c>
+      <c r="T21">
+        <v>1.000016891521271</v>
+      </c>
+      <c r="U21">
+        <v>1.000044404834714</v>
+      </c>
+      <c r="V21">
+        <v>0.9999573267024088</v>
+      </c>
+      <c r="W21">
+        <v>1.000039047493577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.002064200611506</v>
+      </c>
+      <c r="D22">
+        <v>0.9995017226787544</v>
+      </c>
+      <c r="E22">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="F22">
+        <v>1.000424218208672</v>
+      </c>
+      <c r="G22">
+        <v>1.002064200611506</v>
+      </c>
+      <c r="H22">
+        <v>0.9994740751356019</v>
+      </c>
+      <c r="I22">
+        <v>1.001345234016116</v>
+      </c>
+      <c r="J22">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="K22">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="L22">
+        <v>0.9992356484921889</v>
+      </c>
+      <c r="M22">
+        <v>1.000444614924034</v>
+      </c>
+      <c r="N22">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="O22">
+        <v>0.9995017226787544</v>
+      </c>
+      <c r="P22">
+        <v>1.00078296164513</v>
+      </c>
+      <c r="Q22">
+        <v>0.999973168801394</v>
+      </c>
+      <c r="R22">
+        <v>1.000052729880988</v>
+      </c>
+      <c r="S22">
+        <v>1.000670179404765</v>
+      </c>
+      <c r="T22">
+        <v>1.000052729880988</v>
+      </c>
+      <c r="U22">
+        <v>1.000150701141749</v>
+      </c>
+      <c r="V22">
+        <v>0.9998390141839399</v>
+      </c>
+      <c r="W22">
+        <v>1.000135247552447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.004817410835384</v>
+      </c>
+      <c r="D23">
+        <v>0.9988625807015811</v>
+      </c>
+      <c r="E23">
         <v>0.9966693872442903</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.001006328821807</v>
+      </c>
+      <c r="G23">
         <v>1.004817410835384</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.9987584613825438</v>
+      </c>
+      <c r="I23">
+        <v>1.003143905495225</v>
+      </c>
+      <c r="J23">
+        <v>0.9966693872442903</v>
+      </c>
+      <c r="K23">
+        <v>0.9966693872442903</v>
+      </c>
+      <c r="L23">
+        <v>0.9982188453392021</v>
+      </c>
+      <c r="M23">
+        <v>1.00103917496759</v>
+      </c>
+      <c r="N23">
+        <v>0.9966693872442903</v>
+      </c>
+      <c r="O23">
         <v>0.9988625807015811</v>
       </c>
-      <c r="F19">
-        <v>0.9966693872442903</v>
-      </c>
-      <c r="G19">
-        <v>1.00103917496759</v>
-      </c>
-      <c r="H19">
-        <v>0.9982188453392021</v>
-      </c>
-      <c r="I19">
-        <v>0.9966693872442903</v>
-      </c>
-      <c r="J19">
-        <v>1.004817410835384</v>
-      </c>
-      <c r="K19">
-        <v>1.001006328821807</v>
-      </c>
-      <c r="L19">
-        <v>0.9987584613825438</v>
-      </c>
-      <c r="M19">
-        <v>1.003143905495225</v>
-      </c>
-      <c r="N19">
-        <v>0.9966693872442903</v>
-      </c>
-      <c r="O19">
-        <v>0.9988625807015811</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001839995768482</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999508778345856</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000116459593752</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.001573055501518</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000116459593752</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>1.000347138437211</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9996115881986271</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.000314511848453</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.006682875396256</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="D3">
-        <v>0.9984165035119585</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="E3">
-        <v>0.9953896846828976</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="F3">
-        <v>1.00139239860854</v>
+        <v>1.014014592752161</v>
       </c>
       <c r="G3">
-        <v>1.006682875396256</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="H3">
-        <v>0.9982808242280795</v>
+        <v>0.9822968729827088</v>
       </c>
       <c r="I3">
-        <v>1.004360347779996</v>
+        <v>1.047004608479827</v>
       </c>
       <c r="J3">
-        <v>0.9953896846828976</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="K3">
-        <v>0.9953896846828976</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="L3">
-        <v>0.9975285299093517</v>
+        <v>0.9730117294020182</v>
       </c>
       <c r="M3">
-        <v>1.00144123199174</v>
+        <v>1.01553161507925</v>
       </c>
       <c r="N3">
-        <v>0.9953896846828976</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="O3">
-        <v>0.9984165035119585</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="P3">
-        <v>1.002549689454107</v>
+        <v>1.026806809841498</v>
       </c>
       <c r="Q3">
-        <v>0.9999288677518492</v>
+        <v>0.998325964560518</v>
       </c>
       <c r="R3">
-        <v>1.000163021197038</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="S3">
-        <v>1.002180203633318</v>
+        <v>1.023048411587415</v>
       </c>
       <c r="T3">
-        <v>1.000163021197037</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="U3">
-        <v>1.000482573895713</v>
+        <v>1.005540249999999</v>
       </c>
       <c r="V3">
-        <v>0.99946399605315</v>
+        <v>0.9950353530475494</v>
       </c>
       <c r="W3">
-        <v>1.000436549513603</v>
+        <v>1.004811100452089</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.012901733186595</v>
+        <v>1.065794275769661</v>
       </c>
       <c r="D4">
-        <v>0.9969422340454663</v>
+        <v>0.9828274728140146</v>
       </c>
       <c r="E4">
-        <v>0.9911007662758088</v>
+        <v>0.9574241831680966</v>
       </c>
       <c r="F4">
-        <v>1.00268765540198</v>
+        <v>1.012695523473725</v>
       </c>
       <c r="G4">
-        <v>1.012901733186595</v>
+        <v>1.065794275769661</v>
       </c>
       <c r="H4">
-        <v>0.9966814192471165</v>
+        <v>0.9839536297726467</v>
       </c>
       <c r="I4">
-        <v>1.008417812759083</v>
+        <v>1.042654470290721</v>
       </c>
       <c r="J4">
-        <v>0.9911007662758088</v>
+        <v>0.9574241831680966</v>
       </c>
       <c r="K4">
-        <v>0.9911007662758088</v>
+        <v>0.9574241831680966</v>
       </c>
       <c r="L4">
-        <v>0.995228589285313</v>
+        <v>0.9755017514647824</v>
       </c>
       <c r="M4">
-        <v>1.00278235006737</v>
+        <v>1.014094101241155</v>
       </c>
       <c r="N4">
-        <v>0.9911007662758088</v>
+        <v>0.9574241831680966</v>
       </c>
       <c r="O4">
-        <v>0.9969422340454663</v>
+        <v>0.9828274728140146</v>
       </c>
       <c r="P4">
-        <v>1.004921983616031</v>
+        <v>1.024310874291838</v>
       </c>
       <c r="Q4">
-        <v>0.9998622920564182</v>
+        <v>0.9984607870275846</v>
       </c>
       <c r="R4">
-        <v>1.00031491116929</v>
+        <v>1.002015310583924</v>
       </c>
       <c r="S4">
-        <v>1.004208772433144</v>
+        <v>1.020905283274943</v>
       </c>
       <c r="T4">
-        <v>1.00031491116929</v>
+        <v>1.002015310583924</v>
       </c>
       <c r="U4">
-        <v>1.00093177089381</v>
+        <v>1.005035008248232</v>
       </c>
       <c r="V4">
-        <v>0.9989655699702098</v>
+        <v>0.9955128432322047</v>
       </c>
       <c r="W4">
-        <v>1.000842820033592</v>
+        <v>1.00436817599935</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.024734951128698</v>
+        <v>1.085308093099733</v>
       </c>
       <c r="D5">
-        <v>0.9941233099450955</v>
+        <v>0.9778452001886798</v>
       </c>
       <c r="E5">
-        <v>0.9829641579041317</v>
+        <v>0.944599543207547</v>
       </c>
       <c r="F5">
-        <v>1.005143509676645</v>
+        <v>1.016531843827494</v>
       </c>
       <c r="G5">
-        <v>1.024734951128698</v>
+        <v>1.085308093099733</v>
       </c>
       <c r="H5">
-        <v>0.9936456780729046</v>
+        <v>0.9791328552021541</v>
       </c>
       <c r="I5">
-        <v>1.016135983387051</v>
+        <v>1.05532449374663</v>
       </c>
       <c r="J5">
-        <v>0.9829641579041317</v>
+        <v>0.944599543207547</v>
       </c>
       <c r="K5">
-        <v>0.9829641579041317</v>
+        <v>0.944599543207547</v>
       </c>
       <c r="L5">
-        <v>0.9908508314233764</v>
+        <v>0.9682474956603763</v>
       </c>
       <c r="M5">
-        <v>1.005333407110872</v>
+        <v>1.018280912614554</v>
       </c>
       <c r="N5">
-        <v>0.9829641579041317</v>
+        <v>0.944599543207547</v>
       </c>
       <c r="O5">
-        <v>0.9941233099450955</v>
+        <v>0.9778452001886798</v>
       </c>
       <c r="P5">
-        <v>1.009429130536897</v>
+        <v>1.031576646644206</v>
       </c>
       <c r="Q5">
-        <v>0.9997283585279836</v>
+        <v>0.9980630564016169</v>
       </c>
       <c r="R5">
-        <v>1.000607472992642</v>
+        <v>1.002584278831987</v>
       </c>
       <c r="S5">
-        <v>1.008063889394888</v>
+        <v>1.027144735300989</v>
       </c>
       <c r="T5">
-        <v>1.000607472992642</v>
+        <v>1.002584278831986</v>
       </c>
       <c r="U5">
-        <v>1.001788956522199</v>
+        <v>1.006508437277628</v>
       </c>
       <c r="V5">
-        <v>0.9980239967985858</v>
+        <v>0.9941266584636119</v>
       </c>
       <c r="W5">
-        <v>1.001616478581097</v>
+        <v>1.005658804693396</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.036283887396432</v>
+        <v>1.097383346534091</v>
       </c>
       <c r="D6">
-        <v>0.9913716744227776</v>
+        <v>0.9747479307386361</v>
       </c>
       <c r="E6">
-        <v>0.9750237980504438</v>
+        <v>0.9366888255113635</v>
       </c>
       <c r="F6">
-        <v>1.007540079025196</v>
+        <v>1.018896696136364</v>
       </c>
       <c r="G6">
-        <v>1.036283887396432</v>
+        <v>1.097383346534091</v>
       </c>
       <c r="H6">
-        <v>0.9906831080069801</v>
+        <v>0.9761576170454555</v>
       </c>
       <c r="I6">
-        <v>1.023668643220842</v>
+        <v>1.063162312102273</v>
       </c>
       <c r="J6">
-        <v>0.9750237980504438</v>
+        <v>0.9366888255113635</v>
       </c>
       <c r="K6">
-        <v>0.9750237980504438</v>
+        <v>0.9366888255113635</v>
       </c>
       <c r="L6">
-        <v>0.9865782086470726</v>
+        <v>0.9637570305113635</v>
       </c>
       <c r="M6">
-        <v>1.007823148055421</v>
+        <v>1.020870883693183</v>
       </c>
       <c r="N6">
-        <v>0.9750237980504438</v>
+        <v>0.9366888255113635</v>
       </c>
       <c r="O6">
-        <v>0.9913716744227776</v>
+        <v>0.9747479307386361</v>
       </c>
       <c r="P6">
-        <v>1.013827780909605</v>
+        <v>1.036065638636363</v>
       </c>
       <c r="Q6">
-        <v>0.9995974112390992</v>
+        <v>0.9978094072159094</v>
       </c>
       <c r="R6">
-        <v>1.000893119956551</v>
+        <v>1.002940034261363</v>
       </c>
       <c r="S6">
-        <v>1.011826236624876</v>
+        <v>1.03100072032197</v>
       </c>
       <c r="T6">
-        <v>1.000893119956551</v>
+        <v>1.002940034261363</v>
       </c>
       <c r="U6">
-        <v>1.002625626981269</v>
+        <v>1.007422746619318</v>
       </c>
       <c r="V6">
-        <v>0.9971052611951036</v>
+        <v>0.9932759623977272</v>
       </c>
       <c r="W6">
-        <v>1.002371568353146</v>
+        <v>1.006458080284091</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000525976109369</v>
+        <v>1.140472063972206</v>
       </c>
       <c r="D7">
-        <v>0.9998600016683996</v>
+        <v>0.9675803817520376</v>
       </c>
       <c r="E7">
-        <v>0.9996644651425749</v>
+        <v>0.9015548020878389</v>
       </c>
       <c r="F7">
-        <v>1.000099753724296</v>
+        <v>1.029821387114556</v>
       </c>
       <c r="G7">
-        <v>1.000525976109369</v>
+        <v>1.140472063972206</v>
       </c>
       <c r="H7">
-        <v>0.9998732303907579</v>
+        <v>0.9633828771433383</v>
       </c>
       <c r="I7">
-        <v>1.000340521277318</v>
+        <v>1.091802966467161</v>
       </c>
       <c r="J7">
-        <v>0.9996644651425749</v>
+        <v>0.9015548020878389</v>
       </c>
       <c r="K7">
-        <v>0.9996644651425749</v>
+        <v>0.9015548020878389</v>
       </c>
       <c r="L7">
-        <v>0.9998038682971496</v>
+        <v>0.9481412594914211</v>
       </c>
       <c r="M7">
-        <v>1.000112508064077</v>
+        <v>1.030346260037245</v>
       </c>
       <c r="N7">
-        <v>0.9996644651425749</v>
+        <v>0.9015548020878389</v>
       </c>
       <c r="O7">
-        <v>0.9998600016683996</v>
+        <v>0.9675803817520376</v>
       </c>
       <c r="P7">
-        <v>1.000192988888884</v>
+        <v>1.054026222862122</v>
       </c>
       <c r="Q7">
-        <v>0.9999862548662384</v>
+        <v>0.9989633208946412</v>
       </c>
       <c r="R7">
-        <v>1.000016814306781</v>
+        <v>1.003202415937361</v>
       </c>
       <c r="S7">
-        <v>1.000166161947282</v>
+        <v>1.046132901920496</v>
       </c>
       <c r="T7">
-        <v>1.000016814306781</v>
+        <v>1.003202415937361</v>
       </c>
       <c r="U7">
-        <v>1.000040737746105</v>
+        <v>1.009988376962332</v>
       </c>
       <c r="V7">
-        <v>0.9999654832253994</v>
+        <v>0.9883016619874331</v>
       </c>
       <c r="W7">
-        <v>1.000035040584243</v>
+        <v>1.009137749758225</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00143873958642</v>
+        <v>1.142039601741266</v>
       </c>
       <c r="D8">
-        <v>0.9996179798461196</v>
+        <v>0.9671335765114345</v>
       </c>
       <c r="E8">
-        <v>0.9990805442126504</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="F8">
-        <v>1.000273454597296</v>
+        <v>1.030099745289099</v>
       </c>
       <c r="G8">
-        <v>1.00143873958642</v>
+        <v>1.142039601741266</v>
       </c>
       <c r="H8">
-        <v>0.9996527232188545</v>
+        <v>0.9630215042172127</v>
       </c>
       <c r="I8">
-        <v>1.000931611101194</v>
+        <v>1.092812679342312</v>
       </c>
       <c r="J8">
-        <v>0.9990805442126504</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="K8">
-        <v>0.9990805442126504</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="L8">
-        <v>0.9994636066672875</v>
+        <v>0.9475536382570774</v>
       </c>
       <c r="M8">
-        <v>1.000307807994895</v>
+        <v>1.03067978540747</v>
       </c>
       <c r="N8">
-        <v>0.9990805442126504</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="O8">
-        <v>0.9996179798461196</v>
+        <v>0.9671335765114345</v>
       </c>
       <c r="P8">
-        <v>1.00052835971627</v>
+        <v>1.05458658912635</v>
       </c>
       <c r="Q8">
-        <v>0.9999628939205072</v>
+        <v>0.9989066809594522</v>
       </c>
       <c r="R8">
-        <v>1.000045754548397</v>
+        <v>1.003260197353526</v>
       </c>
       <c r="S8">
-        <v>1.000454842475812</v>
+        <v>1.04661765455339</v>
       </c>
       <c r="T8">
-        <v>1.000045754548397</v>
+        <v>1.003260197353526</v>
       </c>
       <c r="U8">
-        <v>1.000111267910021</v>
+        <v>1.010115094367012</v>
       </c>
       <c r="V8">
-        <v>0.999905123170547</v>
+        <v>0.988213558255185</v>
       </c>
       <c r="W8">
-        <v>1.00009580840309</v>
+        <v>1.009243493071719</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.00208525203658</v>
+        <v>1.143206250049282</v>
       </c>
       <c r="D9">
-        <v>0.9994464950446839</v>
+        <v>0.96680103933506</v>
       </c>
       <c r="E9">
-        <v>0.9986670582539728</v>
+        <v>0.8999023150324384</v>
       </c>
       <c r="F9">
-        <v>1.000396449501938</v>
+        <v>1.030306914891711</v>
       </c>
       <c r="G9">
-        <v>1.00208525203658</v>
+        <v>1.143206250049282</v>
       </c>
       <c r="H9">
-        <v>0.9994965709590802</v>
+        <v>0.9627525504933779</v>
       </c>
       <c r="I9">
-        <v>1.001350270821833</v>
+        <v>1.093564163546464</v>
       </c>
       <c r="J9">
-        <v>0.9986670582539728</v>
+        <v>0.8999023150324384</v>
       </c>
       <c r="K9">
-        <v>0.9986670582539728</v>
+        <v>0.8999023150324384</v>
       </c>
       <c r="L9">
-        <v>0.9992225920188723</v>
+        <v>0.9471162980138672</v>
       </c>
       <c r="M9">
-        <v>1.000446135687592</v>
+        <v>1.030928013528886</v>
       </c>
       <c r="N9">
-        <v>0.9986670582539728</v>
+        <v>0.8999023150324384</v>
       </c>
       <c r="O9">
-        <v>0.9994464950446839</v>
+        <v>0.96680103933506</v>
       </c>
       <c r="P9">
-        <v>1.000765873540632</v>
+        <v>1.055003644692171</v>
       </c>
       <c r="Q9">
-        <v>0.9999463153661379</v>
+        <v>0.9988645264319729</v>
       </c>
       <c r="R9">
-        <v>1.000066268445079</v>
+        <v>1.00330320147226</v>
       </c>
       <c r="S9">
-        <v>1.000659294256286</v>
+        <v>1.046978434304409</v>
       </c>
       <c r="T9">
-        <v>1.000066268445079</v>
+        <v>1.00330320147226</v>
       </c>
       <c r="U9">
-        <v>1.000161235255707</v>
+        <v>1.010209404486416</v>
       </c>
       <c r="V9">
-        <v>0.9998623998553603</v>
+        <v>0.9881479865956209</v>
       </c>
       <c r="W9">
-        <v>1.000138853040569</v>
+        <v>1.009322193111386</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.004426127586585</v>
+        <v>1.147530594154482</v>
       </c>
       <c r="D10">
-        <v>0.9988261652021301</v>
+        <v>0.9655684440728871</v>
       </c>
       <c r="E10">
-        <v>0.9971688914568246</v>
+        <v>0.8972887684104119</v>
       </c>
       <c r="F10">
-        <v>1.000842154597751</v>
+        <v>1.031074817933419</v>
       </c>
       <c r="G10">
-        <v>1.004426127586585</v>
+        <v>1.147530594154482</v>
       </c>
       <c r="H10">
-        <v>0.9989308582610779</v>
+        <v>0.9617556361237889</v>
       </c>
       <c r="I10">
-        <v>1.002866243368808</v>
+        <v>1.096349644246462</v>
       </c>
       <c r="J10">
-        <v>0.9971688914568246</v>
+        <v>0.8972887684104119</v>
       </c>
       <c r="K10">
-        <v>0.9971688914568246</v>
+        <v>0.8972887684104119</v>
       </c>
       <c r="L10">
-        <v>0.9983499956608086</v>
+        <v>0.9454952355987339</v>
       </c>
       <c r="M10">
-        <v>1.000947023978623</v>
+        <v>1.031848105695535</v>
       </c>
       <c r="N10">
-        <v>0.9971688914568246</v>
+        <v>0.8972887684104119</v>
       </c>
       <c r="O10">
-        <v>0.9988261652021301</v>
+        <v>0.9655684440728871</v>
       </c>
       <c r="P10">
-        <v>1.001626146394357</v>
+        <v>1.056549519113684</v>
       </c>
       <c r="Q10">
-        <v>0.9998865945903765</v>
+        <v>0.998708274884211</v>
       </c>
       <c r="R10">
-        <v>1.000140394748513</v>
+        <v>1.003462602212594</v>
       </c>
       <c r="S10">
-        <v>1.001399772255779</v>
+        <v>1.048315714640968</v>
       </c>
       <c r="T10">
-        <v>1.000140394748513</v>
+        <v>1.003462602212594</v>
       </c>
       <c r="U10">
-        <v>1.000342052056041</v>
+        <v>1.010558978083329</v>
       </c>
       <c r="V10">
-        <v>0.9997074199361975</v>
+        <v>0.9879049361487455</v>
       </c>
       <c r="W10">
-        <v>1.000294682514076</v>
+        <v>1.009613905779465</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.007548519621448</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="D11">
-        <v>0.9979947350101617</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="E11">
-        <v>0.9951776602471509</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="F11">
-        <v>1.001434100458395</v>
+        <v>1.001599530313724</v>
       </c>
       <c r="G11">
-        <v>1.007548519621448</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="H11">
-        <v>0.9981784997826044</v>
+        <v>0.998023819780938</v>
       </c>
       <c r="I11">
-        <v>1.004887641005165</v>
+        <v>1.005018832996242</v>
       </c>
       <c r="J11">
-        <v>0.9951776602471509</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="K11">
-        <v>0.9951776602471509</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="L11">
-        <v>0.9971856522094567</v>
+        <v>0.9971542047388436</v>
       </c>
       <c r="M11">
-        <v>1.001614897318392</v>
+        <v>1.001658865986806</v>
       </c>
       <c r="N11">
-        <v>0.9951776602471509</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="O11">
-        <v>0.9979947350101617</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="P11">
-        <v>1.002771627315805</v>
+        <v>1.002932591199839</v>
       </c>
       <c r="Q11">
-        <v>0.9998048161642771</v>
+        <v>0.9999152597955472</v>
       </c>
       <c r="R11">
-        <v>1.000240304959587</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="S11">
-        <v>1.002386050650001</v>
+        <v>1.002508016128828</v>
       </c>
       <c r="T11">
-        <v>1.000240304959587</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="U11">
-        <v>1.000583953049288</v>
+        <v>1.000556518405444</v>
       </c>
       <c r="V11">
-        <v>0.9995026944888608</v>
+        <v>0.999385619771413</v>
       </c>
       <c r="W11">
-        <v>1.000502713206597</v>
+        <v>1.00050280768144</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.92505585301876</v>
+        <v>1.004064869528352</v>
       </c>
       <c r="D12">
-        <v>1.016711760342585</v>
+        <v>0.9990409733213442</v>
       </c>
       <c r="E12">
-        <v>1.053561470836624</v>
+        <v>0.9971884117815684</v>
       </c>
       <c r="F12">
-        <v>0.9837156379439094</v>
+        <v>1.000849577055551</v>
       </c>
       <c r="G12">
-        <v>0.92505585301876</v>
+        <v>1.004064869528352</v>
       </c>
       <c r="H12">
-        <v>1.019860629219225</v>
+        <v>0.9989520099147884</v>
       </c>
       <c r="I12">
-        <v>0.9509203947465752</v>
+        <v>1.002652905188588</v>
       </c>
       <c r="J12">
-        <v>1.053561470836624</v>
+        <v>0.9971884117815684</v>
       </c>
       <c r="K12">
-        <v>1.053561470836624</v>
+        <v>0.9971884117815684</v>
       </c>
       <c r="L12">
-        <v>1.027606115002572</v>
+        <v>0.9984971583214142</v>
       </c>
       <c r="M12">
-        <v>0.9837746331294553</v>
+        <v>1.000876879835287</v>
       </c>
       <c r="N12">
-        <v>1.053561470836624</v>
+        <v>0.9971884117815684</v>
       </c>
       <c r="O12">
-        <v>1.016711760342585</v>
+        <v>0.9990409733213442</v>
       </c>
       <c r="P12">
-        <v>0.9708838066806723</v>
+        <v>1.001552921424848</v>
       </c>
       <c r="Q12">
-        <v>1.00024319673602</v>
+        <v>0.9999589265783158</v>
       </c>
       <c r="R12">
-        <v>0.9984430280659896</v>
+        <v>1.000098084877088</v>
       </c>
       <c r="S12">
-        <v>0.9751807488302666</v>
+        <v>1.001327574228328</v>
       </c>
       <c r="T12">
-        <v>0.9984430280659896</v>
+        <v>1.000098084877088</v>
       </c>
       <c r="U12">
-        <v>0.9947759293318561</v>
+        <v>1.000292783616638</v>
       </c>
       <c r="V12">
-        <v>1.00653303763281</v>
+        <v>0.999671909249624</v>
       </c>
       <c r="W12">
-        <v>0.9951508117799632</v>
+        <v>1.000265348118362</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9796151116138745</v>
+        <v>1.014225500617222</v>
       </c>
       <c r="D13">
-        <v>1.005927421620521</v>
+        <v>0.9966395611773747</v>
       </c>
       <c r="E13">
-        <v>1.012112248171304</v>
+        <v>0.9901680058976214</v>
       </c>
       <c r="F13">
-        <v>0.9964549868796057</v>
+        <v>1.002970497933444</v>
       </c>
       <c r="G13">
-        <v>0.9796151116138745</v>
+        <v>1.014225500617222</v>
       </c>
       <c r="H13">
-        <v>1.004634448438814</v>
+        <v>0.9963347722744311</v>
       </c>
       <c r="I13">
-        <v>0.98688954647551</v>
+        <v>1.009283429835407</v>
       </c>
       <c r="J13">
-        <v>1.012112248171304</v>
+        <v>0.9901680058976214</v>
       </c>
       <c r="K13">
-        <v>1.012112248171304</v>
+        <v>0.9901680058976214</v>
       </c>
       <c r="L13">
-        <v>1.007653939649781</v>
+        <v>0.994740187326403</v>
       </c>
       <c r="M13">
-        <v>0.9956697340406946</v>
+        <v>1.003068493510669</v>
       </c>
       <c r="N13">
-        <v>1.012112248171304</v>
+        <v>0.9901680058976214</v>
       </c>
       <c r="O13">
-        <v>1.005927421620521</v>
+        <v>0.9966395611773747</v>
       </c>
       <c r="P13">
-        <v>0.9927712666171977</v>
+        <v>1.005432530897298</v>
       </c>
       <c r="Q13">
-        <v>1.000798577830608</v>
+        <v>0.999854027344022</v>
       </c>
       <c r="R13">
-        <v>0.9992182604685665</v>
+        <v>1.000344355897406</v>
       </c>
       <c r="S13">
-        <v>0.99373742242503</v>
+        <v>1.004644518435089</v>
       </c>
       <c r="T13">
-        <v>0.9992182604685665</v>
+        <v>1.000344355897406</v>
       </c>
       <c r="U13">
-        <v>0.9983311288615986</v>
+        <v>1.001025390300722</v>
       </c>
       <c r="V13">
-        <v>1.00108735272354</v>
+        <v>0.998853913420102</v>
       </c>
       <c r="W13">
-        <v>0.9986196796112632</v>
+        <v>1.000928806071572</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.963735439783223</v>
+        <v>1.018680486510603</v>
       </c>
       <c r="D14">
-        <v>1.014369839509032</v>
+        <v>0.9955642365226866</v>
       </c>
       <c r="E14">
-        <v>1.014747592515798</v>
+        <v>0.9871296833720244</v>
       </c>
       <c r="F14">
-        <v>0.9961414537404596</v>
+        <v>1.003886102636942</v>
       </c>
       <c r="G14">
-        <v>0.963735439783223</v>
+        <v>1.018680486510603</v>
       </c>
       <c r="H14">
-        <v>1.006119641121082</v>
+        <v>0.9951996745644438</v>
       </c>
       <c r="I14">
-        <v>0.9773388722374375</v>
+        <v>1.012186743369741</v>
       </c>
       <c r="J14">
-        <v>1.014747592515798</v>
+        <v>0.9871296833720244</v>
       </c>
       <c r="K14">
-        <v>1.014747592515798</v>
+        <v>0.9871296833720244</v>
       </c>
       <c r="L14">
-        <v>1.014017815243453</v>
+        <v>0.9930905652640096</v>
       </c>
       <c r="M14">
-        <v>0.9925263924631762</v>
+        <v>1.004028078776208</v>
       </c>
       <c r="N14">
-        <v>1.014747592515798</v>
+        <v>0.9871296833720244</v>
       </c>
       <c r="O14">
-        <v>1.014369839509032</v>
+        <v>0.9955642365226866</v>
       </c>
       <c r="P14">
-        <v>0.9890526396461276</v>
+        <v>1.007122361516645</v>
       </c>
       <c r="Q14">
-        <v>1.003448115986104</v>
+        <v>0.9997961576494474</v>
       </c>
       <c r="R14">
-        <v>0.9976176239360176</v>
+        <v>1.000458135468438</v>
       </c>
       <c r="S14">
-        <v>0.9902105572518104</v>
+        <v>1.006090933936499</v>
       </c>
       <c r="T14">
-        <v>0.9976176239360176</v>
+        <v>1.000458135468438</v>
       </c>
       <c r="U14">
-        <v>0.9963448160678072</v>
+        <v>1.00135062129538</v>
       </c>
       <c r="V14">
-        <v>1.000025371357405</v>
+        <v>0.9985064337107092</v>
       </c>
       <c r="W14">
-        <v>0.9973746308267076</v>
+        <v>1.001220696377082</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.993306383595565</v>
+        <v>1.006682875396256</v>
       </c>
       <c r="D15">
-        <v>0.9994418808283211</v>
+        <v>0.9984165035119585</v>
       </c>
       <c r="E15">
-        <v>1.008429562082902</v>
+        <v>0.9953896846828976</v>
       </c>
       <c r="F15">
-        <v>0.9972331013818057</v>
+        <v>1.00139239860854</v>
       </c>
       <c r="G15">
-        <v>0.993306383595565</v>
+        <v>1.006682875396256</v>
       </c>
       <c r="H15">
-        <v>1.002913139413011</v>
+        <v>0.9982808242280795</v>
       </c>
       <c r="I15">
-        <v>0.9952613996017942</v>
+        <v>1.004360347779996</v>
       </c>
       <c r="J15">
-        <v>1.008429562082902</v>
+        <v>0.9953896846828976</v>
       </c>
       <c r="K15">
-        <v>1.008429562082902</v>
+        <v>0.9953896846828976</v>
       </c>
       <c r="L15">
-        <v>1.002250371084115</v>
+        <v>0.9975285299093517</v>
       </c>
       <c r="M15">
-        <v>0.9984275820655333</v>
+        <v>1.00144123199174</v>
       </c>
       <c r="N15">
-        <v>1.008429562082902</v>
+        <v>0.9953896846828976</v>
       </c>
       <c r="O15">
-        <v>0.9994418808283211</v>
+        <v>0.9984165035119585</v>
       </c>
       <c r="P15">
-        <v>0.996374132211943</v>
+        <v>1.002549689454107</v>
       </c>
       <c r="Q15">
-        <v>0.9989347314469272</v>
+        <v>0.9999288677518492</v>
       </c>
       <c r="R15">
-        <v>1.000392608835596</v>
+        <v>1.000163021197038</v>
       </c>
       <c r="S15">
-        <v>0.997058615496473</v>
+        <v>1.002180203633318</v>
       </c>
       <c r="T15">
-        <v>1.000392608835596</v>
+        <v>1.000163021197037</v>
       </c>
       <c r="U15">
-        <v>0.9999013521430802</v>
+        <v>1.000482573895713</v>
       </c>
       <c r="V15">
-        <v>1.001606994131044</v>
+        <v>0.99946399605315</v>
       </c>
       <c r="W15">
-        <v>0.9996579275066309</v>
+        <v>1.000436549513603</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.130524996851948</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="D16">
-        <v>0.9688618422345093</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="E16">
-        <v>0.9103289467181556</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="F16">
-        <v>1.02706057744716</v>
+        <v>1.00268765540198</v>
       </c>
       <c r="G16">
-        <v>1.130524996851948</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="H16">
-        <v>0.9665392574862032</v>
+        <v>0.9966814192471165</v>
       </c>
       <c r="I16">
-        <v>1.085126632396414</v>
+        <v>1.008417812759083</v>
       </c>
       <c r="J16">
-        <v>0.9103289467181556</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="K16">
-        <v>0.9103289467181556</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="L16">
-        <v>0.9517070022372627</v>
+        <v>0.995228589285313</v>
       </c>
       <c r="M16">
-        <v>1.028136431014613</v>
+        <v>1.00278235006737</v>
       </c>
       <c r="N16">
-        <v>0.9103289467181556</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="O16">
-        <v>0.9688618422345093</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="P16">
-        <v>1.049693419543229</v>
+        <v>1.004921983616031</v>
       </c>
       <c r="Q16">
-        <v>0.9984991366245615</v>
+        <v>0.9998622920564182</v>
       </c>
       <c r="R16">
-        <v>1.003238595268204</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="S16">
-        <v>1.042507756700357</v>
+        <v>1.004208772433144</v>
       </c>
       <c r="T16">
-        <v>1.003238595268204</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="U16">
-        <v>1.009463054204807</v>
+        <v>1.00093177089381</v>
       </c>
       <c r="V16">
-        <v>0.9896362327074764</v>
+        <v>0.9989655699702098</v>
       </c>
       <c r="W16">
-        <v>1.008535710798283</v>
+        <v>1.000842820033592</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.107222667116434</v>
+        <v>1.024734951128698</v>
       </c>
       <c r="D17">
-        <v>0.9739536299777377</v>
+        <v>0.9941233099450955</v>
       </c>
       <c r="E17">
-        <v>0.9271683574266862</v>
+        <v>0.9829641579041317</v>
       </c>
       <c r="F17">
-        <v>1.021930483548339</v>
+        <v>1.005143509676645</v>
       </c>
       <c r="G17">
-        <v>1.107222667116434</v>
+        <v>1.024734951128698</v>
       </c>
       <c r="H17">
-        <v>0.972772502893376</v>
+        <v>0.9936456780729046</v>
       </c>
       <c r="I17">
-        <v>1.069848269257905</v>
+        <v>1.016135983387051</v>
       </c>
       <c r="J17">
-        <v>0.9271683574266862</v>
+        <v>0.9829641579041317</v>
       </c>
       <c r="K17">
-        <v>0.9271683574266862</v>
+        <v>0.9829641579041317</v>
       </c>
       <c r="L17">
-        <v>0.9602795951675521</v>
+        <v>0.9908508314233764</v>
       </c>
       <c r="M17">
-        <v>1.023085216218858</v>
+        <v>1.005333407110872</v>
       </c>
       <c r="N17">
-        <v>0.9271683574266862</v>
+        <v>0.9829641579041317</v>
       </c>
       <c r="O17">
-        <v>0.9739536299777377</v>
+        <v>0.9941233099450955</v>
       </c>
       <c r="P17">
-        <v>1.040588148547086</v>
+        <v>1.009429130536897</v>
       </c>
       <c r="Q17">
-        <v>0.9985194230982977</v>
+        <v>0.9997283585279836</v>
       </c>
       <c r="R17">
-        <v>1.002781551506953</v>
+        <v>1.000607472992642</v>
       </c>
       <c r="S17">
-        <v>1.03475383777101</v>
+        <v>1.008063889394888</v>
       </c>
       <c r="T17">
-        <v>1.002781551506952</v>
+        <v>1.000607472992642</v>
       </c>
       <c r="U17">
-        <v>1.007857467684929</v>
+        <v>1.001788956522199</v>
       </c>
       <c r="V17">
-        <v>0.9917196456332803</v>
+        <v>0.9980239967985858</v>
       </c>
       <c r="W17">
-        <v>1.007032590200861</v>
+        <v>1.001616478581097</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.06050204453907</v>
+        <v>1.036283887396432</v>
       </c>
       <c r="D18">
-        <v>0.9841762082570991</v>
+        <v>0.9913716744227776</v>
       </c>
       <c r="E18">
-        <v>0.9609066894621595</v>
+        <v>0.9750237980504438</v>
       </c>
       <c r="F18">
-        <v>1.011653509306831</v>
+        <v>1.007540079025196</v>
       </c>
       <c r="G18">
-        <v>1.06050204453907</v>
+        <v>1.036283887396432</v>
       </c>
       <c r="H18">
-        <v>0.9852624223500294</v>
+        <v>0.9906831080069801</v>
       </c>
       <c r="I18">
-        <v>1.039217878727045</v>
+        <v>1.023668643220842</v>
       </c>
       <c r="J18">
-        <v>0.9609066894621595</v>
+        <v>0.9750237980504438</v>
       </c>
       <c r="K18">
-        <v>0.9609066894621595</v>
+        <v>0.9750237980504438</v>
       </c>
       <c r="L18">
-        <v>0.977468875279923</v>
+        <v>0.9865782086470726</v>
       </c>
       <c r="M18">
-        <v>1.012958471254269</v>
+        <v>1.007823148055421</v>
       </c>
       <c r="N18">
-        <v>0.9609066894621595</v>
+        <v>0.9750237980504438</v>
       </c>
       <c r="O18">
-        <v>0.9841762082570991</v>
+        <v>0.9913716744227776</v>
       </c>
       <c r="P18">
-        <v>1.022339126398085</v>
+        <v>1.013827780909605</v>
       </c>
       <c r="Q18">
-        <v>0.9985673397556842</v>
+        <v>0.9995974112390992</v>
       </c>
       <c r="R18">
-        <v>1.001861647419443</v>
+        <v>1.000893119956551</v>
       </c>
       <c r="S18">
-        <v>1.019212241350146</v>
+        <v>1.011826236624876</v>
       </c>
       <c r="T18">
-        <v>1.001861647419443</v>
+        <v>1.000893119956551</v>
       </c>
       <c r="U18">
-        <v>1.004635853378149</v>
+        <v>1.002625626981269</v>
       </c>
       <c r="V18">
-        <v>0.9958900205949515</v>
+        <v>0.9971052611951036</v>
       </c>
       <c r="W18">
-        <v>1.004018262397053</v>
+        <v>1.002371568353146</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.066256708257381</v>
+        <v>1.000525976109369</v>
       </c>
       <c r="D19">
-        <v>0.9824953055230498</v>
+        <v>0.9998600016683996</v>
       </c>
       <c r="E19">
-        <v>0.9575008880647842</v>
+        <v>0.9996644651425749</v>
       </c>
       <c r="F19">
-        <v>1.012649413484522</v>
+        <v>1.000099753724296</v>
       </c>
       <c r="G19">
-        <v>1.066256708257381</v>
+        <v>1.000525976109369</v>
       </c>
       <c r="H19">
-        <v>0.9839583316255532</v>
+        <v>0.9998732303907579</v>
       </c>
       <c r="I19">
-        <v>1.042917652643766</v>
+        <v>1.000340521277318</v>
       </c>
       <c r="J19">
-        <v>0.9575008880647842</v>
+        <v>0.9996644651425749</v>
       </c>
       <c r="K19">
-        <v>0.9575008880647842</v>
+        <v>0.9996644651425749</v>
       </c>
       <c r="L19">
-        <v>0.9753073685155522</v>
+        <v>0.9998038682971496</v>
       </c>
       <c r="M19">
-        <v>1.01418045472506</v>
+        <v>1.000112508064077</v>
       </c>
       <c r="N19">
-        <v>0.9575008880647842</v>
+        <v>0.9996644651425749</v>
       </c>
       <c r="O19">
-        <v>0.9824953055230498</v>
+        <v>0.9998600016683996</v>
       </c>
       <c r="P19">
-        <v>1.024376006890215</v>
+        <v>1.000192988888884</v>
       </c>
       <c r="Q19">
-        <v>0.998337880124055</v>
+        <v>0.9999862548662384</v>
       </c>
       <c r="R19">
-        <v>1.002084300615072</v>
+        <v>1.000016814306781</v>
       </c>
       <c r="S19">
-        <v>1.02097748950183</v>
+        <v>1.000166161947282</v>
       </c>
       <c r="T19">
-        <v>1.002084300615072</v>
+        <v>1.000016814306781</v>
       </c>
       <c r="U19">
-        <v>1.005108339142569</v>
+        <v>1.000040737746105</v>
       </c>
       <c r="V19">
-        <v>0.9955868489270119</v>
+        <v>0.9999654832253994</v>
       </c>
       <c r="W19">
-        <v>1.004408265354959</v>
+        <v>1.000035040584243</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000033541924723</v>
+        <v>1.00143873958642</v>
       </c>
       <c r="D20">
-        <v>0.9999837952936808</v>
+        <v>0.9996179798461196</v>
       </c>
       <c r="E20">
-        <v>0.9999915366837849</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="F20">
-        <v>1.0000017052397</v>
+        <v>1.000273454597296</v>
       </c>
       <c r="G20">
-        <v>1.000033541924723</v>
+        <v>1.00143873958642</v>
       </c>
       <c r="H20">
-        <v>0.9999959583912493</v>
+        <v>0.9996527232188545</v>
       </c>
       <c r="I20">
-        <v>1.000020456493211</v>
+        <v>1.000931611101194</v>
       </c>
       <c r="J20">
-        <v>0.9999915366837849</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="K20">
-        <v>0.9999915366837849</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="L20">
-        <v>0.9999867274654135</v>
+        <v>0.9994636066672875</v>
       </c>
       <c r="M20">
-        <v>1.000006736985543</v>
+        <v>1.000307807994895</v>
       </c>
       <c r="N20">
-        <v>0.9999915366837849</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="O20">
-        <v>0.9999837952936808</v>
+        <v>0.9996179798461196</v>
       </c>
       <c r="P20">
-        <v>1.000008668609202</v>
+        <v>1.00052835971627</v>
       </c>
       <c r="Q20">
-        <v>0.9999952661396118</v>
+        <v>0.9999628939205072</v>
       </c>
       <c r="R20">
-        <v>1.000002957967396</v>
+        <v>1.000045754548397</v>
       </c>
       <c r="S20">
-        <v>1.000008024734649</v>
+        <v>1.000454842475812</v>
       </c>
       <c r="T20">
-        <v>1.000002957967396</v>
+        <v>1.000045754548397</v>
       </c>
       <c r="U20">
-        <v>1.000003902721933</v>
+        <v>1.000111267910021</v>
       </c>
       <c r="V20">
-        <v>1.000001429514303</v>
+        <v>0.999905123170547</v>
       </c>
       <c r="W20">
-        <v>1.000002557309663</v>
+        <v>1.00009580840309</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.00059128709084</v>
+        <v>1.00208525203658</v>
       </c>
       <c r="D21">
-        <v>0.9998503732997871</v>
+        <v>0.9994464950446839</v>
       </c>
       <c r="E21">
-        <v>0.9996090141731878</v>
+        <v>0.9986670582539728</v>
       </c>
       <c r="F21">
-        <v>1.000117103676048</v>
+        <v>1.000396449501938</v>
       </c>
       <c r="G21">
-        <v>1.00059128709084</v>
+        <v>1.00208525203658</v>
       </c>
       <c r="H21">
-        <v>0.9998531808991783</v>
+        <v>0.9994965709590802</v>
       </c>
       <c r="I21">
-        <v>1.000384147178883</v>
+        <v>1.001350270821833</v>
       </c>
       <c r="J21">
-        <v>0.9996090141731878</v>
+        <v>0.9986670582539728</v>
       </c>
       <c r="K21">
-        <v>0.9996090141731878</v>
+        <v>0.9986670582539728</v>
       </c>
       <c r="L21">
-        <v>0.9997803288556475</v>
+        <v>0.9992225920188723</v>
       </c>
       <c r="M21">
-        <v>1.000126944775042</v>
+        <v>1.000446135687592</v>
       </c>
       <c r="N21">
-        <v>0.9996090141731878</v>
+        <v>0.9986670582539728</v>
       </c>
       <c r="O21">
-        <v>0.9998503732997871</v>
+        <v>0.9994464950446839</v>
       </c>
       <c r="P21">
-        <v>1.000220830195313</v>
+        <v>1.000765873540632</v>
       </c>
       <c r="Q21">
-        <v>0.9999886590374145</v>
+        <v>0.9999463153661379</v>
       </c>
       <c r="R21">
-        <v>1.000016891521271</v>
+        <v>1.000066268445079</v>
       </c>
       <c r="S21">
-        <v>1.000189535055223</v>
+        <v>1.000659294256286</v>
       </c>
       <c r="T21">
-        <v>1.000016891521271</v>
+        <v>1.000066268445079</v>
       </c>
       <c r="U21">
-        <v>1.000044404834714</v>
+        <v>1.000161235255707</v>
       </c>
       <c r="V21">
-        <v>0.9999573267024088</v>
+        <v>0.9998623998553603</v>
       </c>
       <c r="W21">
-        <v>1.000039047493577</v>
+        <v>1.000138853040569</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.002064200611506</v>
+        <v>1.004426127586585</v>
       </c>
       <c r="D22">
-        <v>0.9995017226787544</v>
+        <v>0.9988261652021301</v>
       </c>
       <c r="E22">
-        <v>0.9985922663527032</v>
+        <v>0.9971688914568246</v>
       </c>
       <c r="F22">
-        <v>1.000424218208672</v>
+        <v>1.000842154597751</v>
       </c>
       <c r="G22">
-        <v>1.002064200611506</v>
+        <v>1.004426127586585</v>
       </c>
       <c r="H22">
-        <v>0.9994740751356019</v>
+        <v>0.9989308582610779</v>
       </c>
       <c r="I22">
-        <v>1.001345234016116</v>
+        <v>1.002866243368808</v>
       </c>
       <c r="J22">
-        <v>0.9985922663527032</v>
+        <v>0.9971688914568246</v>
       </c>
       <c r="K22">
-        <v>0.9985922663527032</v>
+        <v>0.9971688914568246</v>
       </c>
       <c r="L22">
-        <v>0.9992356484921889</v>
+        <v>0.9983499956608086</v>
       </c>
       <c r="M22">
-        <v>1.000444614924034</v>
+        <v>1.000947023978623</v>
       </c>
       <c r="N22">
-        <v>0.9985922663527032</v>
+        <v>0.9971688914568246</v>
       </c>
       <c r="O22">
-        <v>0.9995017226787544</v>
+        <v>0.9988261652021301</v>
       </c>
       <c r="P22">
-        <v>1.00078296164513</v>
+        <v>1.001626146394357</v>
       </c>
       <c r="Q22">
-        <v>0.999973168801394</v>
+        <v>0.9998865945903765</v>
       </c>
       <c r="R22">
-        <v>1.000052729880988</v>
+        <v>1.000140394748513</v>
       </c>
       <c r="S22">
-        <v>1.000670179404765</v>
+        <v>1.001399772255779</v>
       </c>
       <c r="T22">
-        <v>1.000052729880988</v>
+        <v>1.000140394748513</v>
       </c>
       <c r="U22">
-        <v>1.000150701141749</v>
+        <v>1.000342052056041</v>
       </c>
       <c r="V22">
-        <v>0.9998390141839399</v>
+        <v>0.9997074199361975</v>
       </c>
       <c r="W22">
-        <v>1.000135247552447</v>
+        <v>1.000294682514076</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.007548519621448</v>
+      </c>
+      <c r="D23">
+        <v>0.9979947350101617</v>
+      </c>
+      <c r="E23">
+        <v>0.9951776602471509</v>
+      </c>
+      <c r="F23">
+        <v>1.001434100458395</v>
+      </c>
+      <c r="G23">
+        <v>1.007548519621448</v>
+      </c>
+      <c r="H23">
+        <v>0.9981784997826044</v>
+      </c>
+      <c r="I23">
+        <v>1.004887641005165</v>
+      </c>
+      <c r="J23">
+        <v>0.9951776602471509</v>
+      </c>
+      <c r="K23">
+        <v>0.9951776602471509</v>
+      </c>
+      <c r="L23">
+        <v>0.9971856522094567</v>
+      </c>
+      <c r="M23">
+        <v>1.001614897318392</v>
+      </c>
+      <c r="N23">
+        <v>0.9951776602471509</v>
+      </c>
+      <c r="O23">
+        <v>0.9979947350101617</v>
+      </c>
+      <c r="P23">
+        <v>1.002771627315805</v>
+      </c>
+      <c r="Q23">
+        <v>0.9998048161642771</v>
+      </c>
+      <c r="R23">
+        <v>1.000240304959587</v>
+      </c>
+      <c r="S23">
+        <v>1.002386050650001</v>
+      </c>
+      <c r="T23">
+        <v>1.000240304959587</v>
+      </c>
+      <c r="U23">
+        <v>1.000583953049288</v>
+      </c>
+      <c r="V23">
+        <v>0.9995026944888608</v>
+      </c>
+      <c r="W23">
+        <v>1.000502713206597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="D24">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="E24">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="F24">
+        <v>0.9837156379439094</v>
+      </c>
+      <c r="G24">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="H24">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="I24">
+        <v>0.9509203947465752</v>
+      </c>
+      <c r="J24">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="K24">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="L24">
+        <v>1.027606115002572</v>
+      </c>
+      <c r="M24">
+        <v>0.9837746331294553</v>
+      </c>
+      <c r="N24">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="O24">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="P24">
+        <v>0.9708838066806723</v>
+      </c>
+      <c r="Q24">
+        <v>1.00024319673602</v>
+      </c>
+      <c r="R24">
+        <v>0.9984430280659896</v>
+      </c>
+      <c r="S24">
+        <v>0.9751807488302666</v>
+      </c>
+      <c r="T24">
+        <v>0.9984430280659896</v>
+      </c>
+      <c r="U24">
+        <v>0.9947759293318561</v>
+      </c>
+      <c r="V24">
+        <v>1.00653303763281</v>
+      </c>
+      <c r="W24">
+        <v>0.9951508117799632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="D25">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="E25">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="F25">
+        <v>0.9964549868796057</v>
+      </c>
+      <c r="G25">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="H25">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="I25">
+        <v>0.98688954647551</v>
+      </c>
+      <c r="J25">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="K25">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="L25">
+        <v>1.007653939649781</v>
+      </c>
+      <c r="M25">
+        <v>0.9956697340406946</v>
+      </c>
+      <c r="N25">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="O25">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="P25">
+        <v>0.9927712666171977</v>
+      </c>
+      <c r="Q25">
+        <v>1.000798577830608</v>
+      </c>
+      <c r="R25">
+        <v>0.9992182604685665</v>
+      </c>
+      <c r="S25">
+        <v>0.99373742242503</v>
+      </c>
+      <c r="T25">
+        <v>0.9992182604685665</v>
+      </c>
+      <c r="U25">
+        <v>0.9983311288615986</v>
+      </c>
+      <c r="V25">
+        <v>1.00108735272354</v>
+      </c>
+      <c r="W25">
+        <v>0.9986196796112632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="D26">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="E26">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="F26">
+        <v>0.9961414537404596</v>
+      </c>
+      <c r="G26">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="H26">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="I26">
+        <v>0.9773388722374375</v>
+      </c>
+      <c r="J26">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="K26">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="L26">
+        <v>1.014017815243453</v>
+      </c>
+      <c r="M26">
+        <v>0.9925263924631762</v>
+      </c>
+      <c r="N26">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="O26">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="P26">
+        <v>0.9890526396461276</v>
+      </c>
+      <c r="Q26">
+        <v>1.003448115986104</v>
+      </c>
+      <c r="R26">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="S26">
+        <v>0.9902105572518104</v>
+      </c>
+      <c r="T26">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="U26">
+        <v>0.9963448160678072</v>
+      </c>
+      <c r="V26">
+        <v>1.000025371357405</v>
+      </c>
+      <c r="W26">
+        <v>0.9973746308267076</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="D27">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="E27">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="F27">
+        <v>0.9972331013818057</v>
+      </c>
+      <c r="G27">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="H27">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="I27">
+        <v>0.9952613996017942</v>
+      </c>
+      <c r="J27">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="K27">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="L27">
+        <v>1.002250371084115</v>
+      </c>
+      <c r="M27">
+        <v>0.9984275820655333</v>
+      </c>
+      <c r="N27">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="O27">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="P27">
+        <v>0.996374132211943</v>
+      </c>
+      <c r="Q27">
+        <v>0.9989347314469272</v>
+      </c>
+      <c r="R27">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="S27">
+        <v>0.997058615496473</v>
+      </c>
+      <c r="T27">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="U27">
+        <v>0.9999013521430802</v>
+      </c>
+      <c r="V27">
+        <v>1.001606994131044</v>
+      </c>
+      <c r="W27">
+        <v>0.9996579275066309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.130524996851948</v>
+      </c>
+      <c r="D28">
+        <v>0.9688618422345093</v>
+      </c>
+      <c r="E28">
+        <v>0.9103289467181556</v>
+      </c>
+      <c r="F28">
+        <v>1.02706057744716</v>
+      </c>
+      <c r="G28">
+        <v>1.130524996851948</v>
+      </c>
+      <c r="H28">
+        <v>0.9665392574862032</v>
+      </c>
+      <c r="I28">
+        <v>1.085126632396414</v>
+      </c>
+      <c r="J28">
+        <v>0.9103289467181556</v>
+      </c>
+      <c r="K28">
+        <v>0.9103289467181556</v>
+      </c>
+      <c r="L28">
+        <v>0.9517070022372627</v>
+      </c>
+      <c r="M28">
+        <v>1.028136431014613</v>
+      </c>
+      <c r="N28">
+        <v>0.9103289467181556</v>
+      </c>
+      <c r="O28">
+        <v>0.9688618422345093</v>
+      </c>
+      <c r="P28">
+        <v>1.049693419543229</v>
+      </c>
+      <c r="Q28">
+        <v>0.9984991366245615</v>
+      </c>
+      <c r="R28">
+        <v>1.003238595268204</v>
+      </c>
+      <c r="S28">
+        <v>1.042507756700357</v>
+      </c>
+      <c r="T28">
+        <v>1.003238595268204</v>
+      </c>
+      <c r="U28">
+        <v>1.009463054204807</v>
+      </c>
+      <c r="V28">
+        <v>0.9896362327074764</v>
+      </c>
+      <c r="W28">
+        <v>1.008535710798283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.107222667116434</v>
+      </c>
+      <c r="D29">
+        <v>0.9739536299777377</v>
+      </c>
+      <c r="E29">
+        <v>0.9271683574266862</v>
+      </c>
+      <c r="F29">
+        <v>1.021930483548339</v>
+      </c>
+      <c r="G29">
+        <v>1.107222667116434</v>
+      </c>
+      <c r="H29">
+        <v>0.972772502893376</v>
+      </c>
+      <c r="I29">
+        <v>1.069848269257905</v>
+      </c>
+      <c r="J29">
+        <v>0.9271683574266862</v>
+      </c>
+      <c r="K29">
+        <v>0.9271683574266862</v>
+      </c>
+      <c r="L29">
+        <v>0.9602795951675521</v>
+      </c>
+      <c r="M29">
+        <v>1.023085216218858</v>
+      </c>
+      <c r="N29">
+        <v>0.9271683574266862</v>
+      </c>
+      <c r="O29">
+        <v>0.9739536299777377</v>
+      </c>
+      <c r="P29">
+        <v>1.040588148547086</v>
+      </c>
+      <c r="Q29">
+        <v>0.9985194230982977</v>
+      </c>
+      <c r="R29">
+        <v>1.002781551506953</v>
+      </c>
+      <c r="S29">
+        <v>1.03475383777101</v>
+      </c>
+      <c r="T29">
+        <v>1.002781551506952</v>
+      </c>
+      <c r="U29">
+        <v>1.007857467684929</v>
+      </c>
+      <c r="V29">
+        <v>0.9917196456332803</v>
+      </c>
+      <c r="W29">
+        <v>1.007032590200861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.06050204453907</v>
+      </c>
+      <c r="D30">
+        <v>0.9841762082570991</v>
+      </c>
+      <c r="E30">
+        <v>0.9609066894621595</v>
+      </c>
+      <c r="F30">
+        <v>1.011653509306831</v>
+      </c>
+      <c r="G30">
+        <v>1.06050204453907</v>
+      </c>
+      <c r="H30">
+        <v>0.9852624223500294</v>
+      </c>
+      <c r="I30">
+        <v>1.039217878727045</v>
+      </c>
+      <c r="J30">
+        <v>0.9609066894621595</v>
+      </c>
+      <c r="K30">
+        <v>0.9609066894621595</v>
+      </c>
+      <c r="L30">
+        <v>0.977468875279923</v>
+      </c>
+      <c r="M30">
+        <v>1.012958471254269</v>
+      </c>
+      <c r="N30">
+        <v>0.9609066894621595</v>
+      </c>
+      <c r="O30">
+        <v>0.9841762082570991</v>
+      </c>
+      <c r="P30">
+        <v>1.022339126398085</v>
+      </c>
+      <c r="Q30">
+        <v>0.9985673397556842</v>
+      </c>
+      <c r="R30">
+        <v>1.001861647419443</v>
+      </c>
+      <c r="S30">
+        <v>1.019212241350146</v>
+      </c>
+      <c r="T30">
+        <v>1.001861647419443</v>
+      </c>
+      <c r="U30">
+        <v>1.004635853378149</v>
+      </c>
+      <c r="V30">
+        <v>0.9958900205949515</v>
+      </c>
+      <c r="W30">
+        <v>1.004018262397053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.066256708257381</v>
+      </c>
+      <c r="D31">
+        <v>0.9824953055230498</v>
+      </c>
+      <c r="E31">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="F31">
+        <v>1.012649413484522</v>
+      </c>
+      <c r="G31">
+        <v>1.066256708257381</v>
+      </c>
+      <c r="H31">
+        <v>0.9839583316255532</v>
+      </c>
+      <c r="I31">
+        <v>1.042917652643766</v>
+      </c>
+      <c r="J31">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="K31">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="L31">
+        <v>0.9753073685155522</v>
+      </c>
+      <c r="M31">
+        <v>1.01418045472506</v>
+      </c>
+      <c r="N31">
+        <v>0.9575008880647842</v>
+      </c>
+      <c r="O31">
+        <v>0.9824953055230498</v>
+      </c>
+      <c r="P31">
+        <v>1.024376006890215</v>
+      </c>
+      <c r="Q31">
+        <v>0.998337880124055</v>
+      </c>
+      <c r="R31">
+        <v>1.002084300615072</v>
+      </c>
+      <c r="S31">
+        <v>1.02097748950183</v>
+      </c>
+      <c r="T31">
+        <v>1.002084300615072</v>
+      </c>
+      <c r="U31">
+        <v>1.005108339142569</v>
+      </c>
+      <c r="V31">
+        <v>0.9955868489270119</v>
+      </c>
+      <c r="W31">
+        <v>1.004408265354959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.157734744657534</v>
+      </c>
+      <c r="D32">
+        <v>0.9626598902739728</v>
+      </c>
+      <c r="E32">
+        <v>0.8911215853424657</v>
+      </c>
+      <c r="F32">
+        <v>1.032886836986301</v>
+      </c>
+      <c r="G32">
+        <v>1.157734744657534</v>
+      </c>
+      <c r="H32">
+        <v>0.9594032183561644</v>
+      </c>
+      <c r="I32">
+        <v>1.102922539726028</v>
+      </c>
+      <c r="J32">
+        <v>0.8911215853424657</v>
+      </c>
+      <c r="K32">
+        <v>0.8911215853424657</v>
+      </c>
+      <c r="L32">
+        <v>0.9416700165753423</v>
+      </c>
+      <c r="M32">
+        <v>1.034019244383562</v>
+      </c>
+      <c r="N32">
+        <v>0.8911215853424657</v>
+      </c>
+      <c r="O32">
+        <v>0.9626598902739728</v>
+      </c>
+      <c r="P32">
+        <v>1.060197317465754</v>
+      </c>
+      <c r="Q32">
+        <v>0.9983395673287676</v>
+      </c>
+      <c r="R32">
+        <v>1.003838740091324</v>
+      </c>
+      <c r="S32">
+        <v>1.051471293105023</v>
+      </c>
+      <c r="T32">
+        <v>1.003838740091324</v>
+      </c>
+      <c r="U32">
+        <v>1.011383866164384</v>
+      </c>
+      <c r="V32">
+        <v>0.9873314100000001</v>
+      </c>
+      <c r="W32">
+        <v>1.010302259537671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="D33">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="E33">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="F33">
+        <v>1.034727852631579</v>
+      </c>
+      <c r="G33">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="H33">
+        <v>0.957013157894737</v>
+      </c>
+      <c r="I33">
+        <v>1.109600613157895</v>
+      </c>
+      <c r="J33">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="K33">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="L33">
+        <v>0.937783587368421</v>
+      </c>
+      <c r="M33">
+        <v>1.036225126842105</v>
+      </c>
+      <c r="N33">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="O33">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="P33">
+        <v>1.063903486578947</v>
+      </c>
+      <c r="Q33">
+        <v>0.9979649607894737</v>
+      </c>
+      <c r="R33">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="S33">
+        <v>1.054677366666667</v>
+      </c>
+      <c r="T33">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="U33">
+        <v>1.012221954210526</v>
+      </c>
+      <c r="V33">
+        <v>0.9867487067368422</v>
+      </c>
+      <c r="W33">
+        <v>1.011001628486842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="E34">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="F34">
+        <v>1.034727852631579</v>
+      </c>
+      <c r="G34">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="H34">
+        <v>0.957013157894737</v>
+      </c>
+      <c r="I34">
+        <v>1.109600613157895</v>
+      </c>
+      <c r="J34">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="K34">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="L34">
+        <v>0.937783587368421</v>
+      </c>
+      <c r="M34">
+        <v>1.036225126842105</v>
+      </c>
+      <c r="N34">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="O34">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="P34">
+        <v>1.063903486578947</v>
+      </c>
+      <c r="Q34">
+        <v>0.9979649607894737</v>
+      </c>
+      <c r="R34">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="S34">
+        <v>1.054677366666667</v>
+      </c>
+      <c r="T34">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="U34">
+        <v>1.012221954210526</v>
+      </c>
+      <c r="V34">
+        <v>0.9867487067368422</v>
+      </c>
+      <c r="W34">
+        <v>1.011001628486842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.23963788681058</v>
+      </c>
+      <c r="D35">
+        <v>0.9361893109885945</v>
+      </c>
+      <c r="E35">
+        <v>0.8471768921643822</v>
+      </c>
+      <c r="F35">
+        <v>1.045430806587816</v>
+      </c>
+      <c r="G35">
+        <v>1.23963788681058</v>
+      </c>
+      <c r="H35">
+        <v>0.9422578673062515</v>
+      </c>
+      <c r="I35">
+        <v>1.15513847542685</v>
+      </c>
+      <c r="J35">
+        <v>0.8471768921643822</v>
+      </c>
+      <c r="K35">
+        <v>0.8471768921643822</v>
+      </c>
+      <c r="L35">
+        <v>0.910639016309732</v>
+      </c>
+      <c r="M35">
+        <v>1.051257976019466</v>
+      </c>
+      <c r="N35">
+        <v>0.8471768921643822</v>
+      </c>
+      <c r="O35">
+        <v>0.9361893109885945</v>
+      </c>
+      <c r="P35">
+        <v>1.087913598899587</v>
+      </c>
+      <c r="Q35">
+        <v>0.9937236435040304</v>
+      </c>
+      <c r="R35">
+        <v>1.007668029987852</v>
+      </c>
+      <c r="S35">
+        <v>1.075695057939547</v>
+      </c>
+      <c r="T35">
+        <v>1.007668029987852</v>
+      </c>
+      <c r="U35">
+        <v>1.018565516495756</v>
+      </c>
+      <c r="V35">
+        <v>0.9842877916294812</v>
+      </c>
+      <c r="W35">
+        <v>1.015966028951709</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000033541924723</v>
+      </c>
+      <c r="D36">
+        <v>0.9999837952936808</v>
+      </c>
+      <c r="E36">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="F36">
+        <v>1.0000017052397</v>
+      </c>
+      <c r="G36">
+        <v>1.000033541924723</v>
+      </c>
+      <c r="H36">
+        <v>0.9999959583912493</v>
+      </c>
+      <c r="I36">
+        <v>1.000020456493211</v>
+      </c>
+      <c r="J36">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="K36">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="L36">
+        <v>0.9999867274654135</v>
+      </c>
+      <c r="M36">
+        <v>1.000006736985543</v>
+      </c>
+      <c r="N36">
+        <v>0.9999915366837849</v>
+      </c>
+      <c r="O36">
+        <v>0.9999837952936808</v>
+      </c>
+      <c r="P36">
+        <v>1.000008668609202</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999952661396118</v>
+      </c>
+      <c r="R36">
+        <v>1.000002957967396</v>
+      </c>
+      <c r="S36">
+        <v>1.000008024734649</v>
+      </c>
+      <c r="T36">
+        <v>1.000002957967396</v>
+      </c>
+      <c r="U36">
+        <v>1.000003902721933</v>
+      </c>
+      <c r="V36">
+        <v>1.000001429514303</v>
+      </c>
+      <c r="W36">
+        <v>1.000002557309663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.00059128709084</v>
+      </c>
+      <c r="D37">
+        <v>0.9998503732997871</v>
+      </c>
+      <c r="E37">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="F37">
+        <v>1.000117103676048</v>
+      </c>
+      <c r="G37">
+        <v>1.00059128709084</v>
+      </c>
+      <c r="H37">
+        <v>0.9998531808991783</v>
+      </c>
+      <c r="I37">
+        <v>1.000384147178883</v>
+      </c>
+      <c r="J37">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="K37">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="L37">
+        <v>0.9997803288556475</v>
+      </c>
+      <c r="M37">
+        <v>1.000126944775042</v>
+      </c>
+      <c r="N37">
+        <v>0.9996090141731878</v>
+      </c>
+      <c r="O37">
+        <v>0.9998503732997871</v>
+      </c>
+      <c r="P37">
+        <v>1.000220830195313</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999886590374145</v>
+      </c>
+      <c r="R37">
+        <v>1.000016891521271</v>
+      </c>
+      <c r="S37">
+        <v>1.000189535055223</v>
+      </c>
+      <c r="T37">
+        <v>1.000016891521271</v>
+      </c>
+      <c r="U37">
+        <v>1.000044404834714</v>
+      </c>
+      <c r="V37">
+        <v>0.9999573267024088</v>
+      </c>
+      <c r="W37">
+        <v>1.000039047493577</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.002064200611506</v>
+      </c>
+      <c r="D38">
+        <v>0.9995017226787544</v>
+      </c>
+      <c r="E38">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="F38">
+        <v>1.000424218208672</v>
+      </c>
+      <c r="G38">
+        <v>1.002064200611506</v>
+      </c>
+      <c r="H38">
+        <v>0.9994740751356019</v>
+      </c>
+      <c r="I38">
+        <v>1.001345234016116</v>
+      </c>
+      <c r="J38">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="K38">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="L38">
+        <v>0.9992356484921889</v>
+      </c>
+      <c r="M38">
+        <v>1.000444614924034</v>
+      </c>
+      <c r="N38">
+        <v>0.9985922663527032</v>
+      </c>
+      <c r="O38">
+        <v>0.9995017226787544</v>
+      </c>
+      <c r="P38">
+        <v>1.00078296164513</v>
+      </c>
+      <c r="Q38">
+        <v>0.999973168801394</v>
+      </c>
+      <c r="R38">
+        <v>1.000052729880988</v>
+      </c>
+      <c r="S38">
+        <v>1.000670179404765</v>
+      </c>
+      <c r="T38">
+        <v>1.000052729880988</v>
+      </c>
+      <c r="U38">
+        <v>1.000150701141749</v>
+      </c>
+      <c r="V38">
+        <v>0.9998390141839399</v>
+      </c>
+      <c r="W38">
+        <v>1.000135247552447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.004817410835384</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9988625807015811</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9966693872442903</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001006328821807</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.004817410835384</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9987584613825438</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.003143905495225</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9966693872442903</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9966693872442903</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9982188453392021</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.00103917496759</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9966693872442903</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9988625807015811</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001839995768482</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999508778345856</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000116459593752</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.001573055501518</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000116459593752</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>1.000347138437211</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9996115881986271</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.000314511848453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.059373575659167</v>
+      </c>
+      <c r="D40">
+        <v>0.9845877739158367</v>
+      </c>
+      <c r="E40">
+        <v>0.9614288697849082</v>
+      </c>
+      <c r="F40">
+        <v>1.011510662261824</v>
+      </c>
+      <c r="G40">
+        <v>1.059373575659167</v>
+      </c>
+      <c r="H40">
+        <v>0.9854726235174999</v>
+      </c>
+      <c r="I40">
+        <v>1.038506552962158</v>
+      </c>
+      <c r="J40">
+        <v>0.9614288697849082</v>
+      </c>
+      <c r="K40">
+        <v>0.9614288697849082</v>
+      </c>
+      <c r="L40">
+        <v>0.9779013419871293</v>
+      </c>
+      <c r="M40">
+        <v>1.012723767054321</v>
+      </c>
+      <c r="N40">
+        <v>0.9614288697849082</v>
+      </c>
+      <c r="O40">
+        <v>0.9845877739158367</v>
+      </c>
+      <c r="P40">
+        <v>1.021980674787502</v>
+      </c>
+      <c r="Q40">
+        <v>0.9986557704850787</v>
+      </c>
+      <c r="R40">
+        <v>1.001796739786637</v>
+      </c>
+      <c r="S40">
+        <v>1.018895038876441</v>
+      </c>
+      <c r="T40">
+        <v>1.001796739786637</v>
+      </c>
+      <c r="U40">
+        <v>1.004528496603558</v>
+      </c>
+      <c r="V40">
+        <v>0.9959085712398281</v>
+      </c>
+      <c r="W40">
+        <v>1.003938145892855</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9708732884289826</v>
+      </c>
+      <c r="D41">
+        <v>1.006721389120122</v>
+      </c>
+      <c r="E41">
+        <v>1.020413871843863</v>
+      </c>
+      <c r="F41">
+        <v>0.9938160742517124</v>
+      </c>
+      <c r="G41">
+        <v>0.9708732884289826</v>
+      </c>
+      <c r="H41">
+        <v>1.007592948144996</v>
+      </c>
+      <c r="I41">
+        <v>0.9809646345863895</v>
+      </c>
+      <c r="J41">
+        <v>1.020413871843863</v>
+      </c>
+      <c r="K41">
+        <v>1.020413871843863</v>
+      </c>
+      <c r="L41">
+        <v>1.010752760770213</v>
+      </c>
+      <c r="M41">
+        <v>0.9937076901312665</v>
+      </c>
+      <c r="N41">
+        <v>1.020413871843863</v>
+      </c>
+      <c r="O41">
+        <v>1.006721389120122</v>
+      </c>
+      <c r="P41">
+        <v>0.9887973387745524</v>
+      </c>
+      <c r="Q41">
+        <v>1.000214539625695</v>
+      </c>
+      <c r="R41">
+        <v>0.9993361831309894</v>
+      </c>
+      <c r="S41">
+        <v>0.9904341225601238</v>
+      </c>
+      <c r="T41">
+        <v>0.9993361831309894</v>
+      </c>
+      <c r="U41">
+        <v>0.9979290598810586</v>
+      </c>
+      <c r="V41">
+        <v>1.00242602227362</v>
+      </c>
+      <c r="W41">
+        <v>0.9981053321596932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.087799225108222</v>
+      </c>
+      <c r="D42">
+        <v>0.9783234229496228</v>
+      </c>
+      <c r="E42">
+        <v>0.9409814415152564</v>
+      </c>
+      <c r="F42">
+        <v>1.017734710762495</v>
+      </c>
+      <c r="G42">
+        <v>1.087799225108222</v>
+      </c>
+      <c r="H42">
+        <v>0.9778983986662351</v>
+      </c>
+      <c r="I42">
+        <v>1.057134873588052</v>
+      </c>
+      <c r="J42">
+        <v>0.9409814415152564</v>
+      </c>
+      <c r="K42">
+        <v>0.9409814415152564</v>
+      </c>
+      <c r="L42">
+        <v>0.967438382864685</v>
+      </c>
+      <c r="M42">
+        <v>1.018882368903794</v>
+      </c>
+      <c r="N42">
+        <v>0.9409814415152564</v>
+      </c>
+      <c r="O42">
+        <v>0.9783234229496228</v>
+      </c>
+      <c r="P42">
+        <v>1.033061324028923</v>
+      </c>
+      <c r="Q42">
+        <v>0.9986028959267081</v>
+      </c>
+      <c r="R42">
+        <v>1.002368029857701</v>
+      </c>
+      <c r="S42">
+        <v>1.02833500565388</v>
+      </c>
+      <c r="T42">
+        <v>1.0023680298577</v>
+      </c>
+      <c r="U42">
+        <v>1.006496614619224</v>
+      </c>
+      <c r="V42">
+        <v>0.9933935799984303</v>
+      </c>
+      <c r="W42">
+        <v>1.005774103044795</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
     <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9953896846828976</v>
+        <v>1.00143873958642</v>
       </c>
       <c r="D3">
-        <v>1.006682875396256</v>
+        <v>0.9996179798461196</v>
       </c>
       <c r="E3">
-        <v>0.9984165035119585</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="F3">
-        <v>0.9953896846828976</v>
+        <v>1.000273454597296</v>
       </c>
       <c r="G3">
-        <v>1.00144123199174</v>
+        <v>1.00143873958642</v>
       </c>
       <c r="H3">
-        <v>0.9975285299093517</v>
+        <v>0.9996527232188545</v>
       </c>
       <c r="I3">
-        <v>0.9953896846828976</v>
+        <v>1.000931611101194</v>
       </c>
       <c r="J3">
-        <v>1.006682875396256</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="K3">
-        <v>1.00139239860854</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="L3">
-        <v>0.9982808242280793</v>
+        <v>0.9994636066672875</v>
       </c>
       <c r="M3">
-        <v>1.004360347779996</v>
+        <v>1.000307807994895</v>
       </c>
       <c r="N3">
-        <v>0.9953896846828976</v>
+        <v>0.9990805442126504</v>
       </c>
       <c r="O3">
-        <v>0.9984165035119585</v>
+        <v>0.9996179798461196</v>
       </c>
       <c r="P3">
-        <v>1.002549689454107</v>
+        <v>1.00052835971627</v>
       </c>
       <c r="Q3">
-        <v>0.9999288677518492</v>
+        <v>0.9999628939205072</v>
       </c>
       <c r="R3">
-        <v>1.000163021197038</v>
+        <v>1.000045754548397</v>
       </c>
       <c r="S3">
-        <v>1.002180203633318</v>
+        <v>1.000454842475812</v>
       </c>
       <c r="T3">
-        <v>1.000163021197037</v>
+        <v>1.000045754548397</v>
       </c>
       <c r="U3">
-        <v>1.000482573895713</v>
+        <v>1.000111267910021</v>
       </c>
       <c r="V3">
-        <v>0.99946399605315</v>
+        <v>0.999905123170547</v>
       </c>
       <c r="W3">
-        <v>1.000436549513602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.00009580840309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9911007662758088</v>
+        <v>1.059373575659167</v>
       </c>
       <c r="D4">
-        <v>1.012901733186595</v>
+        <v>0.9845877739158367</v>
       </c>
       <c r="E4">
-        <v>0.9969422340454663</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="F4">
-        <v>0.9911007662758088</v>
+        <v>1.011510662261824</v>
       </c>
       <c r="G4">
-        <v>1.00278235006737</v>
+        <v>1.059373575659167</v>
       </c>
       <c r="H4">
-        <v>0.995228589285313</v>
+        <v>0.9854726235174999</v>
       </c>
       <c r="I4">
-        <v>0.9911007662758088</v>
+        <v>1.038506552962158</v>
       </c>
       <c r="J4">
-        <v>1.012901733186595</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="K4">
-        <v>1.00268765540198</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="L4">
-        <v>0.9966814192471165</v>
+        <v>0.9779013419871293</v>
       </c>
       <c r="M4">
-        <v>1.008417812759083</v>
+        <v>1.012723767054321</v>
       </c>
       <c r="N4">
-        <v>0.9911007662758088</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="O4">
-        <v>0.9969422340454663</v>
+        <v>0.9845877739158367</v>
       </c>
       <c r="P4">
-        <v>1.004921983616031</v>
+        <v>1.021980674787502</v>
       </c>
       <c r="Q4">
-        <v>0.9998622920564182</v>
+        <v>0.9986557704850787</v>
       </c>
       <c r="R4">
-        <v>1.00031491116929</v>
+        <v>1.001796739786637</v>
       </c>
       <c r="S4">
-        <v>1.004208772433144</v>
+        <v>1.018895038876441</v>
       </c>
       <c r="T4">
-        <v>1.00031491116929</v>
+        <v>1.001796739786637</v>
       </c>
       <c r="U4">
-        <v>1.00093177089381</v>
+        <v>1.004528496603558</v>
       </c>
       <c r="V4">
-        <v>0.9989655699702098</v>
+        <v>0.9959085712398281</v>
       </c>
       <c r="W4">
-        <v>1.000842820033592</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.003938145892855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9829641579041317</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="D5">
-        <v>1.024734951128698</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="E5">
-        <v>0.9941233099450955</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="F5">
-        <v>0.9829641579041317</v>
+        <v>1.014014592752161</v>
       </c>
       <c r="G5">
-        <v>1.005333407110872</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="H5">
-        <v>0.9908508314233764</v>
+        <v>0.9822968729827088</v>
       </c>
       <c r="I5">
-        <v>0.9829641579041317</v>
+        <v>1.047004608479827</v>
       </c>
       <c r="J5">
-        <v>1.024734951128698</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="K5">
-        <v>1.005143509676645</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="L5">
-        <v>0.9936456780729046</v>
+        <v>0.9730117294020182</v>
       </c>
       <c r="M5">
-        <v>1.016135983387051</v>
+        <v>1.01553161507925</v>
       </c>
       <c r="N5">
-        <v>0.9829641579041317</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="O5">
-        <v>0.9941233099450955</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="P5">
-        <v>1.009429130536897</v>
+        <v>1.026806809841498</v>
       </c>
       <c r="Q5">
-        <v>0.9997283585279836</v>
+        <v>0.998325964560518</v>
       </c>
       <c r="R5">
-        <v>1.000607472992642</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="S5">
-        <v>1.008063889394888</v>
+        <v>1.023048411587415</v>
       </c>
       <c r="T5">
-        <v>1.000607472992642</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="U5">
-        <v>1.001788956522199</v>
+        <v>1.005540249999999</v>
       </c>
       <c r="V5">
-        <v>0.9980239967985858</v>
+        <v>0.9950353530475494</v>
       </c>
       <c r="W5">
-        <v>1.001616478581097</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.004811100452089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9750237980504438</v>
+        <v>1.23963788681058</v>
       </c>
       <c r="D6">
-        <v>1.036283887396432</v>
+        <v>0.9361893109885945</v>
       </c>
       <c r="E6">
-        <v>0.9913716744227776</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="F6">
-        <v>0.9750237980504438</v>
+        <v>1.045430806587816</v>
       </c>
       <c r="G6">
-        <v>1.007823148055421</v>
+        <v>1.23963788681058</v>
       </c>
       <c r="H6">
-        <v>0.9865782086470726</v>
+        <v>0.9422578673062515</v>
       </c>
       <c r="I6">
-        <v>0.9750237980504438</v>
+        <v>1.15513847542685</v>
       </c>
       <c r="J6">
-        <v>1.036283887396432</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="K6">
-        <v>1.007540079025196</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="L6">
-        <v>0.9906831080069801</v>
+        <v>0.910639016309732</v>
       </c>
       <c r="M6">
-        <v>1.023668643220843</v>
+        <v>1.051257976019466</v>
       </c>
       <c r="N6">
-        <v>0.9750237980504438</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="O6">
-        <v>0.9913716744227776</v>
+        <v>0.9361893109885945</v>
       </c>
       <c r="P6">
-        <v>1.013827780909605</v>
+        <v>1.087913598899587</v>
       </c>
       <c r="Q6">
-        <v>0.9995974112390992</v>
+        <v>0.9937236435040304</v>
       </c>
       <c r="R6">
-        <v>1.000893119956551</v>
+        <v>1.007668029987852</v>
       </c>
       <c r="S6">
-        <v>1.011826236624876</v>
+        <v>1.075695057939547</v>
       </c>
       <c r="T6">
-        <v>1.000893119956551</v>
+        <v>1.007668029987852</v>
       </c>
       <c r="U6">
-        <v>1.002625626981269</v>
+        <v>1.018565516495756</v>
       </c>
       <c r="V6">
-        <v>0.9971052611951036</v>
+        <v>0.9842877916294812</v>
       </c>
       <c r="W6">
-        <v>1.002371568353146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.015966028951709</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9996644651425749</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="D7">
-        <v>1.000525976109369</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="E7">
-        <v>0.9998600016683996</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="F7">
-        <v>0.9996644651425749</v>
+        <v>1.001599530313724</v>
       </c>
       <c r="G7">
-        <v>1.000112508064077</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="H7">
-        <v>0.9998038682971496</v>
+        <v>0.998023819780938</v>
       </c>
       <c r="I7">
-        <v>0.9996644651425749</v>
+        <v>1.005018832996242</v>
       </c>
       <c r="J7">
-        <v>1.000525976109369</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="K7">
-        <v>1.000099753724296</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="L7">
-        <v>0.9998732303907579</v>
+        <v>0.9971542047388436</v>
       </c>
       <c r="M7">
-        <v>1.000340521277318</v>
+        <v>1.001658865986806</v>
       </c>
       <c r="N7">
-        <v>0.9996644651425749</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="O7">
-        <v>0.9998600016683996</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="P7">
-        <v>1.000192988888884</v>
+        <v>1.002932591199839</v>
       </c>
       <c r="Q7">
-        <v>0.9999862548662384</v>
+        <v>0.9999152597955472</v>
       </c>
       <c r="R7">
-        <v>1.000016814306781</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="S7">
-        <v>1.000166161947282</v>
+        <v>1.002508016128828</v>
       </c>
       <c r="T7">
-        <v>1.000016814306781</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="U7">
-        <v>1.000040737746105</v>
+        <v>1.000556518405444</v>
       </c>
       <c r="V7">
-        <v>0.9999654832253991</v>
+        <v>0.999385619771413</v>
       </c>
       <c r="W7">
-        <v>1.000035040584243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.00050280768144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9990805442126508</v>
+        <v>1.00059128709084</v>
       </c>
       <c r="D8">
-        <v>1.00143873958642</v>
+        <v>0.9998503732997871</v>
       </c>
       <c r="E8">
-        <v>0.9996179798461196</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="F8">
-        <v>0.9990805442126508</v>
+        <v>1.000117103676048</v>
       </c>
       <c r="G8">
-        <v>1.000307807994895</v>
+        <v>1.00059128709084</v>
       </c>
       <c r="H8">
-        <v>0.9994636066672875</v>
+        <v>0.9998531808991783</v>
       </c>
       <c r="I8">
-        <v>0.9990805442126508</v>
+        <v>1.000384147178883</v>
       </c>
       <c r="J8">
-        <v>1.00143873958642</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="K8">
-        <v>1.000273454597296</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="L8">
-        <v>0.9996527232188546</v>
+        <v>0.9997803288556475</v>
       </c>
       <c r="M8">
-        <v>1.000931611101194</v>
+        <v>1.000126944775042</v>
       </c>
       <c r="N8">
-        <v>0.9990805442126508</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="O8">
-        <v>0.9996179798461196</v>
+        <v>0.9998503732997871</v>
       </c>
       <c r="P8">
-        <v>1.00052835971627</v>
+        <v>1.000220830195313</v>
       </c>
       <c r="Q8">
-        <v>0.9999628939205073</v>
+        <v>0.9999886590374145</v>
       </c>
       <c r="R8">
-        <v>1.000045754548397</v>
+        <v>1.000016891521271</v>
       </c>
       <c r="S8">
-        <v>1.000454842475812</v>
+        <v>1.000189535055223</v>
       </c>
       <c r="T8">
-        <v>1.000045754548397</v>
+        <v>1.000016891521271</v>
       </c>
       <c r="U8">
-        <v>1.000111267910021</v>
+        <v>1.000044404834714</v>
       </c>
       <c r="V8">
-        <v>0.9999051231705472</v>
+        <v>0.9999573267024088</v>
       </c>
       <c r="W8">
-        <v>1.00009580840309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.000039047493577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9986670582539728</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="D9">
-        <v>1.00208525203658</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="E9">
-        <v>0.9994464950446839</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="F9">
-        <v>0.9986670582539728</v>
+        <v>1.00268765540198</v>
       </c>
       <c r="G9">
-        <v>1.000446135687592</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="H9">
-        <v>0.9992225920188723</v>
+        <v>0.9966814192471165</v>
       </c>
       <c r="I9">
-        <v>0.9986670582539728</v>
+        <v>1.008417812759083</v>
       </c>
       <c r="J9">
-        <v>1.00208525203658</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="K9">
-        <v>1.000396449501938</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="L9">
-        <v>0.9994965709590802</v>
+        <v>0.995228589285313</v>
       </c>
       <c r="M9">
-        <v>1.001350270821833</v>
+        <v>1.00278235006737</v>
       </c>
       <c r="N9">
-        <v>0.9986670582539728</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="O9">
-        <v>0.9994464950446839</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="P9">
-        <v>1.000765873540632</v>
+        <v>1.004921983616031</v>
       </c>
       <c r="Q9">
-        <v>0.9999463153661379</v>
+        <v>0.9998622920564182</v>
       </c>
       <c r="R9">
-        <v>1.000066268445079</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="S9">
-        <v>1.000659294256286</v>
+        <v>1.004208772433144</v>
       </c>
       <c r="T9">
-        <v>1.000066268445079</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="U9">
-        <v>1.000161235255707</v>
+        <v>1.00093177089381</v>
       </c>
       <c r="V9">
-        <v>0.9998623998553603</v>
+        <v>0.9989655699702098</v>
       </c>
       <c r="W9">
-        <v>1.000138853040569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.000842820033592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9971688914568244</v>
+        <v>1.243247245765553</v>
       </c>
       <c r="D10">
-        <v>1.004426127586585</v>
+        <v>0.9351655290773299</v>
       </c>
       <c r="E10">
-        <v>0.9988261652021301</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="F10">
-        <v>0.9971688914568244</v>
+        <v>1.046074955786711</v>
       </c>
       <c r="G10">
-        <v>1.000947023978623</v>
+        <v>1.243247245765553</v>
       </c>
       <c r="H10">
-        <v>0.9983499956608086</v>
+        <v>0.941422995690935</v>
       </c>
       <c r="I10">
-        <v>0.9971688914568244</v>
+        <v>1.157464274623609</v>
       </c>
       <c r="J10">
-        <v>1.004426127586585</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="K10">
-        <v>1.000842154597751</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="L10">
-        <v>0.9989308582610781</v>
+        <v>0.9092865068560856</v>
       </c>
       <c r="M10">
-        <v>1.002866243368808</v>
+        <v>1.052026242120317</v>
       </c>
       <c r="N10">
-        <v>0.9971688914568244</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="O10">
-        <v>0.9988261652021301</v>
+        <v>0.9351655290773299</v>
       </c>
       <c r="P10">
-        <v>1.001626146394357</v>
+        <v>1.089206387421441</v>
       </c>
       <c r="Q10">
-        <v>0.9998865945903765</v>
+        <v>0.9935958855988236</v>
       </c>
       <c r="R10">
-        <v>1.000140394748513</v>
+        <v>1.007799774938793</v>
       </c>
       <c r="S10">
-        <v>1.001399772255779</v>
+        <v>1.0768130056544</v>
       </c>
       <c r="T10">
-        <v>1.000140394748513</v>
+        <v>1.007799774938793</v>
       </c>
       <c r="U10">
-        <v>1.00034205205604</v>
+        <v>1.018856391734174</v>
       </c>
       <c r="V10">
-        <v>0.9997074199361972</v>
+        <v>0.984082423382038</v>
       </c>
       <c r="W10">
-        <v>1.000294682514076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.016209287486754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9951776602471509</v>
+        <v>1.036844430094802</v>
       </c>
       <c r="D11">
-        <v>1.007548519621448</v>
+        <v>0.9895618106513012</v>
       </c>
       <c r="E11">
-        <v>0.9979947350101617</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="F11">
-        <v>0.9951776602471509</v>
+        <v>1.006583553912415</v>
       </c>
       <c r="G11">
-        <v>1.001614897318392</v>
+        <v>1.036844430094802</v>
       </c>
       <c r="H11">
-        <v>0.9971856522094567</v>
+        <v>0.991470602845962</v>
       </c>
       <c r="I11">
-        <v>0.9951776602471509</v>
+        <v>1.023744000806459</v>
       </c>
       <c r="J11">
-        <v>1.007548519621448</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="K11">
-        <v>1.001434100458395</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="L11">
-        <v>0.9981784997826044</v>
+        <v>0.9861948630512984</v>
       </c>
       <c r="M11">
-        <v>1.004887641005165</v>
+        <v>1.007843228877973</v>
       </c>
       <c r="N11">
-        <v>0.9951776602471509</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="O11">
-        <v>0.9979947350101617</v>
+        <v>0.9895618106513012</v>
       </c>
       <c r="P11">
-        <v>1.002771627315805</v>
+        <v>1.013203120373052</v>
       </c>
       <c r="Q11">
-        <v>0.9998048161642771</v>
+        <v>0.9987025197646371</v>
       </c>
       <c r="R11">
-        <v>1.000240304959587</v>
+        <v>1.001341586868007</v>
       </c>
       <c r="S11">
-        <v>1.002386050650001</v>
+        <v>1.011416489874692</v>
       </c>
       <c r="T11">
-        <v>1.000240304959587</v>
+        <v>1.001341586868006</v>
       </c>
       <c r="U11">
-        <v>1.000583953049288</v>
+        <v>1.002966997370498</v>
       </c>
       <c r="V11">
-        <v>0.9995026944888608</v>
+        <v>0.9978973018679816</v>
       </c>
       <c r="W11">
-        <v>1.000502713206597</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.002482626262266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.053561470836624</v>
+        <v>1.073510688347368</v>
       </c>
       <c r="D12">
-        <v>0.92505585301876</v>
+        <v>0.9804578772210537</v>
       </c>
       <c r="E12">
-        <v>1.016711760342585</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="F12">
-        <v>1.053561470836624</v>
+        <v>1.013956891621054</v>
       </c>
       <c r="G12">
-        <v>0.9837746331294551</v>
+        <v>1.073510688347368</v>
       </c>
       <c r="H12">
-        <v>1.027606115002572</v>
+        <v>0.9822692454947383</v>
       </c>
       <c r="I12">
-        <v>1.053561470836624</v>
+        <v>1.047595458221052</v>
       </c>
       <c r="J12">
-        <v>0.92505585301876</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="K12">
-        <v>0.9837156379439094</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="L12">
-        <v>1.019860629219225</v>
+        <v>0.9725912490315769</v>
       </c>
       <c r="M12">
-        <v>0.9509203947465752</v>
+        <v>1.01572569986316</v>
       </c>
       <c r="N12">
-        <v>1.053561470836624</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="O12">
-        <v>1.016711760342585</v>
+        <v>0.9804578772210537</v>
       </c>
       <c r="P12">
-        <v>0.9708838066806723</v>
+        <v>1.026984282784211</v>
       </c>
       <c r="Q12">
-        <v>1.00024319673602</v>
+        <v>0.9980917885421069</v>
       </c>
       <c r="R12">
-        <v>0.9984430280659896</v>
+        <v>1.002343857105263</v>
       </c>
       <c r="S12">
-        <v>0.9751807488302666</v>
+        <v>1.023231421810527</v>
       </c>
       <c r="T12">
-        <v>0.9984430280659896</v>
+        <v>1.002343857105263</v>
       </c>
       <c r="U12">
-        <v>0.994775929331856</v>
+        <v>1.005689317794737</v>
       </c>
       <c r="V12">
-        <v>1.00653303763281</v>
+        <v>0.9951640553852628</v>
       </c>
       <c r="W12">
-        <v>0.9951508117799632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.004896264443421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.012112248171304</v>
+        <v>0.9526347222431559</v>
       </c>
       <c r="D13">
-        <v>0.9796151116138745</v>
+        <v>1.011979104788094</v>
       </c>
       <c r="E13">
-        <v>1.005927421620521</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="F13">
-        <v>1.012112248171304</v>
+        <v>0.99061513019074</v>
       </c>
       <c r="G13">
-        <v>0.9956697340406946</v>
+        <v>0.9526347222431559</v>
       </c>
       <c r="H13">
-        <v>1.007653939649781</v>
+        <v>1.011764773345253</v>
       </c>
       <c r="I13">
-        <v>1.012112248171304</v>
+        <v>0.9692266824235301</v>
       </c>
       <c r="J13">
-        <v>0.9796151116138745</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="K13">
-        <v>0.9964549868796057</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="L13">
-        <v>1.004634448438814</v>
+        <v>1.017596035773496</v>
       </c>
       <c r="M13">
-        <v>0.9868895464755102</v>
+        <v>0.9898306195768509</v>
       </c>
       <c r="N13">
-        <v>1.012112248171304</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="O13">
-        <v>1.005927421620521</v>
+        <v>1.011979104788094</v>
       </c>
       <c r="P13">
-        <v>0.9927712666171977</v>
+        <v>0.982306913515625</v>
       </c>
       <c r="Q13">
-        <v>1.000798577830608</v>
+        <v>1.000904862182473</v>
       </c>
       <c r="R13">
-        <v>0.9992182604685665</v>
+        <v>0.998648574290093</v>
       </c>
       <c r="S13">
-        <v>0.99373742242503</v>
+        <v>0.9848148155360338</v>
       </c>
       <c r="T13">
-        <v>0.9992182604685665</v>
+        <v>0.998648574290093</v>
       </c>
       <c r="U13">
-        <v>0.9983311288615986</v>
+        <v>0.9964440856117824</v>
       </c>
       <c r="V13">
-        <v>1.00108735272354</v>
+        <v>1.003421647657232</v>
       </c>
       <c r="W13">
-        <v>0.9986196796112632</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>0.9968723705225186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.014747592515798</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="D14">
-        <v>0.963735439783223</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="E14">
-        <v>1.014369839509032</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="F14">
-        <v>1.014747592515798</v>
+        <v>1.079525899999999</v>
       </c>
       <c r="G14">
-        <v>0.9925263924631762</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="H14">
-        <v>1.014017815243453</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="I14">
-        <v>1.014747592515798</v>
+        <v>1.2721004</v>
       </c>
       <c r="J14">
-        <v>0.963735439783223</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="K14">
-        <v>0.9961414537404594</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="L14">
-        <v>1.006119641121082</v>
+        <v>0.8432138100000013</v>
       </c>
       <c r="M14">
-        <v>0.9773388722374375</v>
+        <v>1.0899016</v>
       </c>
       <c r="N14">
-        <v>1.014747592515798</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="O14">
-        <v>1.014369839509032</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="P14">
-        <v>0.9890526396461276</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q14">
-        <v>1.003448115986104</v>
+        <v>0.9888495350000006</v>
       </c>
       <c r="R14">
-        <v>0.9976176239360176</v>
+        <v>1.01352004</v>
       </c>
       <c r="S14">
-        <v>0.9902105572518104</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T14">
-        <v>0.9976176239360176</v>
+        <v>1.01352004</v>
       </c>
       <c r="U14">
-        <v>0.9963448160678072</v>
+        <v>1.03261543</v>
       </c>
       <c r="V14">
-        <v>1.000025371357405</v>
+        <v>0.9725695939999996</v>
       </c>
       <c r="W14">
-        <v>0.9973746308267075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.02801960625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.008429562082902</v>
+        <v>1.4203764</v>
       </c>
       <c r="D15">
-        <v>0.993306383595565</v>
+        <v>0.88779747</v>
       </c>
       <c r="E15">
-        <v>0.9994418808283211</v>
+        <v>0.73238625</v>
       </c>
       <c r="F15">
-        <v>1.008429562082902</v>
+        <v>1.0795259</v>
       </c>
       <c r="G15">
-        <v>0.9984275820655333</v>
+        <v>1.4203764</v>
       </c>
       <c r="H15">
-        <v>1.002250371084114</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="I15">
-        <v>1.008429562082902</v>
+        <v>1.2721004</v>
       </c>
       <c r="J15">
-        <v>0.993306383595565</v>
+        <v>0.73238625</v>
       </c>
       <c r="K15">
-        <v>0.9972331013818057</v>
+        <v>0.73238625</v>
       </c>
       <c r="L15">
-        <v>1.002913139413011</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="M15">
-        <v>0.9952613996017942</v>
+        <v>1.0899016</v>
       </c>
       <c r="N15">
-        <v>1.008429562082902</v>
+        <v>0.73238625</v>
       </c>
       <c r="O15">
-        <v>0.9994418808283211</v>
+        <v>0.88779747</v>
       </c>
       <c r="P15">
-        <v>0.996374132211943</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q15">
-        <v>0.9989347314469272</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R15">
-        <v>1.000392608835596</v>
+        <v>1.01352004</v>
       </c>
       <c r="S15">
-        <v>0.997058615496473</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T15">
-        <v>1.000392608835596</v>
+        <v>1.01352004</v>
       </c>
       <c r="U15">
-        <v>0.9999013521430802</v>
+        <v>1.03261543</v>
       </c>
       <c r="V15">
-        <v>1.001606994131044</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W15">
-        <v>0.9996579275066309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>1.02801960625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.999991536683785</v>
+        <v>1.4203764</v>
       </c>
       <c r="D16">
-        <v>1.000033541924723</v>
+        <v>0.88779747</v>
       </c>
       <c r="E16">
-        <v>0.9999837952936808</v>
+        <v>0.73238625</v>
       </c>
       <c r="F16">
-        <v>0.999991536683785</v>
+        <v>1.0795259</v>
       </c>
       <c r="G16">
-        <v>1.000006736985543</v>
+        <v>1.4203764</v>
       </c>
       <c r="H16">
-        <v>0.9999867274654136</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="I16">
-        <v>0.999991536683785</v>
+        <v>1.2721004</v>
       </c>
       <c r="J16">
-        <v>1.000033541924723</v>
+        <v>0.73238625</v>
       </c>
       <c r="K16">
-        <v>1.0000017052397</v>
+        <v>0.73238625</v>
       </c>
       <c r="L16">
-        <v>0.9999959583912493</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="M16">
-        <v>1.000020456493211</v>
+        <v>1.0899016</v>
       </c>
       <c r="N16">
-        <v>0.999991536683785</v>
+        <v>0.73238625</v>
       </c>
       <c r="O16">
-        <v>0.9999837952936808</v>
+        <v>0.88779747</v>
       </c>
       <c r="P16">
-        <v>1.000008668609202</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q16">
-        <v>0.9999952661396118</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R16">
-        <v>1.000002957967396</v>
+        <v>1.01352004</v>
       </c>
       <c r="S16">
-        <v>1.000008024734649</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T16">
-        <v>1.000002957967396</v>
+        <v>1.01352004</v>
       </c>
       <c r="U16">
-        <v>1.000003902721933</v>
+        <v>1.03261543</v>
       </c>
       <c r="V16">
-        <v>1.000001429514303</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W16">
-        <v>1.000002557309663</v>
+        <v>1.02801960625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9996090141731878</v>
+        <v>1.0209422</v>
       </c>
       <c r="D17">
-        <v>1.000591287090839</v>
+        <v>1.0016507</v>
       </c>
       <c r="E17">
-        <v>0.9998503732997871</v>
+        <v>0.97379624</v>
       </c>
       <c r="F17">
-        <v>0.9996090141731878</v>
+        <v>1.0085957</v>
       </c>
       <c r="G17">
-        <v>1.000126944775042</v>
+        <v>1.0209422</v>
       </c>
       <c r="H17">
-        <v>0.9997803288556469</v>
+        <v>0.99093873</v>
       </c>
       <c r="I17">
-        <v>0.9996090141731878</v>
+        <v>1.0148091</v>
       </c>
       <c r="J17">
-        <v>1.000591287090839</v>
+        <v>0.97379624</v>
       </c>
       <c r="K17">
-        <v>1.000117103676048</v>
+        <v>0.97379624</v>
       </c>
       <c r="L17">
-        <v>0.9998531808991783</v>
+        <v>0.9929493</v>
       </c>
       <c r="M17">
-        <v>1.000384147178883</v>
+        <v>1.0049139</v>
       </c>
       <c r="N17">
-        <v>0.9996090141731878</v>
+        <v>0.97379624</v>
       </c>
       <c r="O17">
-        <v>0.9998503732997871</v>
+        <v>1.0016507</v>
       </c>
       <c r="P17">
-        <v>1.000220830195313</v>
+        <v>1.01129645</v>
       </c>
       <c r="Q17">
-        <v>0.9999886590374145</v>
+        <v>1.0032823</v>
       </c>
       <c r="R17">
-        <v>1.000016891521271</v>
+        <v>0.9987963799999999</v>
       </c>
       <c r="S17">
-        <v>1.000189535055223</v>
+        <v>1.009168933333333</v>
       </c>
       <c r="T17">
-        <v>1.000016891521271</v>
+        <v>0.9987963799999999</v>
       </c>
       <c r="U17">
-        <v>1.000044404834714</v>
+        <v>1.00032576</v>
       </c>
       <c r="V17">
-        <v>0.9999573267024088</v>
+        <v>0.9950198560000001</v>
       </c>
       <c r="W17">
-        <v>1.000039047493577</v>
+        <v>1.00107448375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9985922663527032</v>
+        <v>1.157734744657534</v>
       </c>
       <c r="D18">
-        <v>1.002064200611506</v>
+        <v>0.9626598902739728</v>
       </c>
       <c r="E18">
-        <v>0.9995017226787547</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="F18">
-        <v>0.9985922663527032</v>
+        <v>1.032886836986301</v>
       </c>
       <c r="G18">
-        <v>1.000444614924034</v>
+        <v>1.157734744657534</v>
       </c>
       <c r="H18">
-        <v>0.9992356484921889</v>
+        <v>0.9594032183561644</v>
       </c>
       <c r="I18">
-        <v>0.9985922663527032</v>
+        <v>1.102922539726028</v>
       </c>
       <c r="J18">
-        <v>1.002064200611506</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="K18">
-        <v>1.000424218208672</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="L18">
-        <v>0.9994740751356019</v>
+        <v>0.9416700165753423</v>
       </c>
       <c r="M18">
-        <v>1.001345234016116</v>
+        <v>1.034019244383562</v>
       </c>
       <c r="N18">
-        <v>0.9985922663527032</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="O18">
-        <v>0.9995017226787547</v>
+        <v>0.9626598902739728</v>
       </c>
       <c r="P18">
-        <v>1.00078296164513</v>
+        <v>1.060197317465754</v>
       </c>
       <c r="Q18">
-        <v>0.9999731688013942</v>
+        <v>0.9983395673287676</v>
       </c>
       <c r="R18">
-        <v>1.000052729880988</v>
+        <v>1.003838740091324</v>
       </c>
       <c r="S18">
-        <v>1.000670179404765</v>
+        <v>1.051471293105023</v>
       </c>
       <c r="T18">
-        <v>1.000052729880988</v>
+        <v>1.003838740091324</v>
       </c>
       <c r="U18">
-        <v>1.000150701141749</v>
+        <v>1.011383866164384</v>
       </c>
       <c r="V18">
-        <v>0.9998390141839399</v>
+        <v>0.9873314100000001</v>
       </c>
       <c r="W18">
-        <v>1.000135247552447</v>
+        <v>1.010302259537671</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9966693872442903</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="D19">
-        <v>1.004817410835384</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="E19">
-        <v>0.9988625807015811</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="F19">
-        <v>0.9966693872442903</v>
+        <v>1.034727852631579</v>
       </c>
       <c r="G19">
-        <v>1.00103917496759</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="H19">
-        <v>0.9982188453392021</v>
+        <v>0.957013157894737</v>
       </c>
       <c r="I19">
-        <v>0.9966693872442903</v>
+        <v>1.109600613157895</v>
       </c>
       <c r="J19">
-        <v>1.004817410835384</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="K19">
-        <v>1.001006328821807</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="L19">
-        <v>0.9987584613825438</v>
+        <v>0.937783587368421</v>
       </c>
       <c r="M19">
-        <v>1.003143905495225</v>
+        <v>1.036225126842105</v>
       </c>
       <c r="N19">
-        <v>0.9966693872442903</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="O19">
-        <v>0.9988625807015811</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="P19">
-        <v>1.001839995768482</v>
+        <v>1.063903486578947</v>
       </c>
       <c r="Q19">
-        <v>0.9999508778345856</v>
+        <v>0.9979649607894737</v>
       </c>
       <c r="R19">
-        <v>1.000116459593752</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="S19">
-        <v>1.001573055501518</v>
+        <v>1.054677366666667</v>
       </c>
       <c r="T19">
-        <v>1.000116459593752</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="U19">
-        <v>1.000347138437211</v>
+        <v>1.012221954210526</v>
       </c>
       <c r="V19">
-        <v>0.9996115881986271</v>
+        <v>0.9867487067368422</v>
       </c>
       <c r="W19">
-        <v>1.000314511848453</v>
+        <v>1.011001628486842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="E20">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="F20">
+        <v>1.034727852631579</v>
+      </c>
+      <c r="G20">
+        <v>1.168102178421053</v>
+      </c>
+      <c r="H20">
+        <v>0.957013157894737</v>
+      </c>
+      <c r="I20">
+        <v>1.109600613157895</v>
+      </c>
+      <c r="J20">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="K20">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="L20">
+        <v>0.937783587368421</v>
+      </c>
+      <c r="M20">
+        <v>1.036225126842105</v>
+      </c>
+      <c r="N20">
+        <v>0.8848557168421052</v>
+      </c>
+      <c r="O20">
+        <v>0.9597047947368422</v>
+      </c>
+      <c r="P20">
+        <v>1.063903486578947</v>
+      </c>
+      <c r="Q20">
+        <v>0.9979649607894737</v>
+      </c>
+      <c r="R20">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="S20">
+        <v>1.054677366666667</v>
+      </c>
+      <c r="T20">
+        <v>1.004220896666667</v>
+      </c>
+      <c r="U20">
+        <v>1.012221954210526</v>
+      </c>
+      <c r="V20">
+        <v>0.9867487067368422</v>
+      </c>
+      <c r="W20">
+        <v>1.011001628486842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="D21">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="E21">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="F21">
+        <v>0.9961414537404596</v>
+      </c>
+      <c r="G21">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="H21">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="I21">
+        <v>0.9773388722374375</v>
+      </c>
+      <c r="J21">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="K21">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="L21">
+        <v>1.014017815243453</v>
+      </c>
+      <c r="M21">
+        <v>0.9925263924631762</v>
+      </c>
+      <c r="N21">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="O21">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="P21">
+        <v>0.9890526396461276</v>
+      </c>
+      <c r="Q21">
+        <v>1.003448115986104</v>
+      </c>
+      <c r="R21">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="S21">
+        <v>0.9902105572518104</v>
+      </c>
+      <c r="T21">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="U21">
+        <v>0.9963448160678072</v>
+      </c>
+      <c r="V21">
+        <v>1.000025371357405</v>
+      </c>
+      <c r="W21">
+        <v>0.9973746308267076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="D22">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="E22">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="F22">
+        <v>0.9972331013818057</v>
+      </c>
+      <c r="G22">
+        <v>0.993306383595565</v>
+      </c>
+      <c r="H22">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="I22">
+        <v>0.9952613996017942</v>
+      </c>
+      <c r="J22">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="K22">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="L22">
+        <v>1.002250371084115</v>
+      </c>
+      <c r="M22">
+        <v>0.9984275820655333</v>
+      </c>
+      <c r="N22">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="O22">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="P22">
+        <v>0.996374132211943</v>
+      </c>
+      <c r="Q22">
+        <v>0.9989347314469272</v>
+      </c>
+      <c r="R22">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="S22">
+        <v>0.997058615496473</v>
+      </c>
+      <c r="T22">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="U22">
+        <v>0.9999013521430802</v>
+      </c>
+      <c r="V22">
+        <v>1.001606994131044</v>
+      </c>
+      <c r="W22">
+        <v>0.9996579275066309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="D23">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="E23">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="F23">
+        <v>0.9837156379439094</v>
+      </c>
+      <c r="G23">
+        <v>0.92505585301876</v>
+      </c>
+      <c r="H23">
+        <v>1.019860629219225</v>
+      </c>
+      <c r="I23">
+        <v>0.9509203947465752</v>
+      </c>
+      <c r="J23">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="K23">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="L23">
+        <v>1.027606115002572</v>
+      </c>
+      <c r="M23">
+        <v>0.9837746331294553</v>
+      </c>
+      <c r="N23">
+        <v>1.053561470836624</v>
+      </c>
+      <c r="O23">
+        <v>1.016711760342585</v>
+      </c>
+      <c r="P23">
+        <v>0.9708838066806723</v>
+      </c>
+      <c r="Q23">
+        <v>1.00024319673602</v>
+      </c>
+      <c r="R23">
+        <v>0.9984430280659896</v>
+      </c>
+      <c r="S23">
+        <v>0.9751807488302666</v>
+      </c>
+      <c r="T23">
+        <v>0.9984430280659896</v>
+      </c>
+      <c r="U23">
+        <v>0.9947759293318561</v>
+      </c>
+      <c r="V23">
+        <v>1.00653303763281</v>
+      </c>
+      <c r="W23">
+        <v>0.9951508117799632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="D24">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="E24">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="F24">
+        <v>0.9964549868796057</v>
+      </c>
+      <c r="G24">
+        <v>0.9796151116138745</v>
+      </c>
+      <c r="H24">
+        <v>1.004634448438814</v>
+      </c>
+      <c r="I24">
+        <v>0.98688954647551</v>
+      </c>
+      <c r="J24">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="K24">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="L24">
+        <v>1.007653939649781</v>
+      </c>
+      <c r="M24">
+        <v>0.9956697340406946</v>
+      </c>
+      <c r="N24">
+        <v>1.012112248171304</v>
+      </c>
+      <c r="O24">
+        <v>1.005927421620521</v>
+      </c>
+      <c r="P24">
+        <v>0.9927712666171977</v>
+      </c>
+      <c r="Q24">
+        <v>1.000798577830608</v>
+      </c>
+      <c r="R24">
+        <v>0.9992182604685665</v>
+      </c>
+      <c r="S24">
+        <v>0.99373742242503</v>
+      </c>
+      <c r="T24">
+        <v>0.9992182604685665</v>
+      </c>
+      <c r="U24">
+        <v>0.9983311288615986</v>
+      </c>
+      <c r="V24">
+        <v>1.00108735272354</v>
+      </c>
+      <c r="W24">
+        <v>0.9986196796112632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="D25">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="E25">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="F25">
+        <v>0.9961414537404596</v>
+      </c>
+      <c r="G25">
+        <v>0.963735439783223</v>
+      </c>
+      <c r="H25">
+        <v>1.006119641121082</v>
+      </c>
+      <c r="I25">
+        <v>0.9773388722374375</v>
+      </c>
+      <c r="J25">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="K25">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="L25">
+        <v>1.014017815243453</v>
+      </c>
+      <c r="M25">
+        <v>0.9925263924631761</v>
+      </c>
+      <c r="N25">
+        <v>1.014747592515798</v>
+      </c>
+      <c r="O25">
+        <v>1.014369839509032</v>
+      </c>
+      <c r="P25">
+        <v>0.9890526396461276</v>
+      </c>
+      <c r="Q25">
+        <v>1.003448115986104</v>
+      </c>
+      <c r="R25">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="S25">
+        <v>0.9902105572518104</v>
+      </c>
+      <c r="T25">
+        <v>0.9976176239360176</v>
+      </c>
+      <c r="U25">
+        <v>0.9963448160678072</v>
+      </c>
+      <c r="V25">
+        <v>1.000025371357405</v>
+      </c>
+      <c r="W25">
+        <v>0.9973746308267076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9933063835955649</v>
+      </c>
+      <c r="D26">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="E26">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="F26">
+        <v>0.9972331013818057</v>
+      </c>
+      <c r="G26">
+        <v>0.9933063835955649</v>
+      </c>
+      <c r="H26">
+        <v>1.002913139413011</v>
+      </c>
+      <c r="I26">
+        <v>0.9952613996017942</v>
+      </c>
+      <c r="J26">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="K26">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="L26">
+        <v>1.002250371084115</v>
+      </c>
+      <c r="M26">
+        <v>0.9984275820655333</v>
+      </c>
+      <c r="N26">
+        <v>1.008429562082902</v>
+      </c>
+      <c r="O26">
+        <v>0.9994418808283211</v>
+      </c>
+      <c r="P26">
+        <v>0.996374132211943</v>
+      </c>
+      <c r="Q26">
+        <v>0.9989347314469272</v>
+      </c>
+      <c r="R26">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="S26">
+        <v>0.997058615496473</v>
+      </c>
+      <c r="T26">
+        <v>1.000392608835596</v>
+      </c>
+      <c r="U26">
+        <v>0.9999013521430802</v>
+      </c>
+      <c r="V26">
+        <v>1.001606994131044</v>
+      </c>
+      <c r="W26">
+        <v>0.9996579275066309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="D27">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="E27">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="F27">
+        <v>1.005029388252175</v>
+      </c>
+      <c r="G27">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="H27">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="I27">
+        <v>1.016041686398808</v>
+      </c>
+      <c r="J27">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="K27">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="L27">
+        <v>0.9908751033011152</v>
+      </c>
+      <c r="M27">
+        <v>1.0053018174538</v>
+      </c>
+      <c r="N27">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="O27">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="P27">
+        <v>1.009316693005241</v>
+      </c>
+      <c r="Q27">
+        <v>0.9996533315838203</v>
+      </c>
+      <c r="R27">
+        <v>1.00064212056489</v>
+      </c>
+      <c r="S27">
+        <v>1.007978401154761</v>
+      </c>
+      <c r="T27">
+        <v>1.00064212056489</v>
+      </c>
+      <c r="U27">
+        <v>1.001807044787118</v>
+      </c>
+      <c r="V27">
+        <v>0.9981042309665321</v>
+      </c>
+      <c r="W27">
+        <v>1.00161590170181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.01068436835141</v>
+      </c>
+      <c r="D28">
+        <v>0.9990660449804287</v>
+      </c>
+      <c r="E28">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="F28">
+        <v>1.003248647264372</v>
+      </c>
+      <c r="G28">
+        <v>1.01068436835141</v>
+      </c>
+      <c r="H28">
+        <v>0.9963638310877883</v>
+      </c>
+      <c r="I28">
+        <v>1.007247819337628</v>
+      </c>
+      <c r="J28">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="K28">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="L28">
+        <v>0.9962164034494032</v>
+      </c>
+      <c r="M28">
+        <v>1.002400226879678</v>
+      </c>
+      <c r="N28">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="O28">
+        <v>0.9990660449804287</v>
+      </c>
+      <c r="P28">
+        <v>1.004875206665919</v>
+      </c>
+      <c r="Q28">
+        <v>1.000733135930054</v>
+      </c>
+      <c r="R28">
+        <v>0.9998464174458235</v>
+      </c>
+      <c r="S28">
+        <v>1.004050213403839</v>
+      </c>
+      <c r="T28">
+        <v>0.9998464174458236</v>
+      </c>
+      <c r="U28">
+        <v>1.000484869804287</v>
+      </c>
+      <c r="V28">
+        <v>0.9983456636445563</v>
+      </c>
+      <c r="W28">
+        <v>1.000627022544543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.93427825215649</v>
+      </c>
+      <c r="D29">
+        <v>1.019018088069463</v>
+      </c>
+      <c r="E29">
+        <v>1.039214206429792</v>
+      </c>
+      <c r="F29">
+        <v>0.9885117662537631</v>
+      </c>
+      <c r="G29">
+        <v>0.93427825215649</v>
+      </c>
+      <c r="H29">
+        <v>1.014992848993604</v>
+      </c>
+      <c r="I29">
+        <v>0.9577153773118796</v>
+      </c>
+      <c r="J29">
+        <v>1.039214206429792</v>
+      </c>
+      <c r="K29">
+        <v>1.039214206429792</v>
+      </c>
+      <c r="L29">
+        <v>1.024666954473673</v>
+      </c>
+      <c r="M29">
+        <v>0.9860335068299773</v>
+      </c>
+      <c r="N29">
+        <v>1.039214206429792</v>
+      </c>
+      <c r="O29">
+        <v>1.019018088069463</v>
+      </c>
+      <c r="P29">
+        <v>0.9766481701129768</v>
+      </c>
+      <c r="Q29">
+        <v>1.00252579744972</v>
+      </c>
+      <c r="R29">
+        <v>0.9975035155519151</v>
+      </c>
+      <c r="S29">
+        <v>0.9797766156853104</v>
+      </c>
+      <c r="T29">
+        <v>0.997503515551915</v>
+      </c>
+      <c r="U29">
+        <v>0.9946360133714305</v>
+      </c>
+      <c r="V29">
+        <v>1.003551651983103</v>
+      </c>
+      <c r="W29">
+        <v>0.9955538750648303</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/CubeA-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.059373575659167</v>
+        <v>1.058601672565221</v>
       </c>
       <c r="D4">
-        <v>0.9845877739158367</v>
+        <v>0.9846795121843712</v>
       </c>
       <c r="E4">
-        <v>0.9614288697849082</v>
+        <v>0.9621234503712661</v>
       </c>
       <c r="F4">
-        <v>1.011510662261824</v>
+        <v>1.011291491402081</v>
       </c>
       <c r="G4">
-        <v>1.059373575659167</v>
+        <v>1.058601672565221</v>
       </c>
       <c r="H4">
-        <v>0.9854726235174999</v>
+        <v>0.9857218425318898</v>
       </c>
       <c r="I4">
-        <v>1.038506552962158</v>
+        <v>1.037987128323161</v>
       </c>
       <c r="J4">
-        <v>0.9614288697849082</v>
+        <v>0.9621234503712661</v>
       </c>
       <c r="K4">
-        <v>0.9614288697849082</v>
+        <v>0.9621234503712661</v>
       </c>
       <c r="L4">
-        <v>0.9779013419871293</v>
+        <v>0.9781772390827875</v>
       </c>
       <c r="M4">
-        <v>1.012723767054321</v>
+        <v>1.012551821969163</v>
       </c>
       <c r="N4">
-        <v>0.9614288697849082</v>
+        <v>0.9621234503712661</v>
       </c>
       <c r="O4">
-        <v>0.9845877739158367</v>
+        <v>0.9846795121843712</v>
       </c>
       <c r="P4">
-        <v>1.021980674787502</v>
+        <v>1.021640592374796</v>
       </c>
       <c r="Q4">
-        <v>0.9986557704850787</v>
+        <v>0.9986156670767673</v>
       </c>
       <c r="R4">
-        <v>1.001796739786637</v>
+        <v>1.001801545040286</v>
       </c>
       <c r="S4">
-        <v>1.018895038876441</v>
+        <v>1.018611002239585</v>
       </c>
       <c r="T4">
-        <v>1.001796739786637</v>
+        <v>1.001801545040286</v>
       </c>
       <c r="U4">
-        <v>1.004528496603558</v>
+        <v>1.004489114272505</v>
       </c>
       <c r="V4">
-        <v>0.9959085712398281</v>
+        <v>0.9960159814922577</v>
       </c>
       <c r="W4">
-        <v>1.003938145892855</v>
+        <v>1.003891769803743</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.072493305641209</v>
+        <v>1.142039601741266</v>
       </c>
       <c r="D5">
-        <v>0.9811203140417862</v>
+        <v>0.9671335765114345</v>
       </c>
       <c r="E5">
-        <v>0.9530157652377511</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="F5">
-        <v>1.014014592752161</v>
+        <v>1.030099745289099</v>
       </c>
       <c r="G5">
-        <v>1.072493305641209</v>
+        <v>1.142039601741266</v>
       </c>
       <c r="H5">
-        <v>0.9822968729827088</v>
+        <v>0.9630215042172127</v>
       </c>
       <c r="I5">
-        <v>1.047004608479827</v>
+        <v>1.092812679342312</v>
       </c>
       <c r="J5">
-        <v>0.9530157652377511</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="K5">
-        <v>0.9530157652377511</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="L5">
-        <v>0.9730117294020182</v>
+        <v>0.9475536382570774</v>
       </c>
       <c r="M5">
-        <v>1.01553161507925</v>
+        <v>1.03067978540747</v>
       </c>
       <c r="N5">
-        <v>0.9530157652377511</v>
+        <v>0.9006074138078776</v>
       </c>
       <c r="O5">
-        <v>0.9811203140417862</v>
+        <v>0.9671335765114345</v>
       </c>
       <c r="P5">
-        <v>1.026806809841498</v>
+        <v>1.05458658912635</v>
       </c>
       <c r="Q5">
-        <v>0.998325964560518</v>
+        <v>0.9989066809594522</v>
       </c>
       <c r="R5">
-        <v>1.002209794973582</v>
+        <v>1.003260197353526</v>
       </c>
       <c r="S5">
-        <v>1.023048411587415</v>
+        <v>1.04661765455339</v>
       </c>
       <c r="T5">
-        <v>1.002209794973582</v>
+        <v>1.003260197353526</v>
       </c>
       <c r="U5">
-        <v>1.005540249999999</v>
+        <v>1.010115094367012</v>
       </c>
       <c r="V5">
-        <v>0.9950353530475494</v>
+        <v>0.988213558255185</v>
       </c>
       <c r="W5">
-        <v>1.004811100452089</v>
+        <v>1.009243493071719</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.23963788681058</v>
+        <v>1.059373575659167</v>
       </c>
       <c r="D6">
-        <v>0.9361893109885945</v>
+        <v>0.9845877739158367</v>
       </c>
       <c r="E6">
-        <v>0.8471768921643822</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="F6">
-        <v>1.045430806587816</v>
+        <v>1.011510662261824</v>
       </c>
       <c r="G6">
-        <v>1.23963788681058</v>
+        <v>1.059373575659167</v>
       </c>
       <c r="H6">
-        <v>0.9422578673062515</v>
+        <v>0.9854726235174999</v>
       </c>
       <c r="I6">
-        <v>1.15513847542685</v>
+        <v>1.038506552962158</v>
       </c>
       <c r="J6">
-        <v>0.8471768921643822</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="K6">
-        <v>0.8471768921643822</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="L6">
-        <v>0.910639016309732</v>
+        <v>0.9779013419871293</v>
       </c>
       <c r="M6">
-        <v>1.051257976019466</v>
+        <v>1.012723767054321</v>
       </c>
       <c r="N6">
-        <v>0.8471768921643822</v>
+        <v>0.9614288697849082</v>
       </c>
       <c r="O6">
-        <v>0.9361893109885945</v>
+        <v>0.9845877739158367</v>
       </c>
       <c r="P6">
-        <v>1.087913598899587</v>
+        <v>1.021980674787502</v>
       </c>
       <c r="Q6">
-        <v>0.9937236435040304</v>
+        <v>0.9986557704850787</v>
       </c>
       <c r="R6">
-        <v>1.007668029987852</v>
+        <v>1.001796739786637</v>
       </c>
       <c r="S6">
-        <v>1.075695057939547</v>
+        <v>1.018895038876441</v>
       </c>
       <c r="T6">
-        <v>1.007668029987852</v>
+        <v>1.001796739786637</v>
       </c>
       <c r="U6">
-        <v>1.018565516495756</v>
+        <v>1.004528496603558</v>
       </c>
       <c r="V6">
-        <v>0.9842877916294812</v>
+        <v>0.9959085712398281</v>
       </c>
       <c r="W6">
-        <v>1.015966028951709</v>
+        <v>1.003938145892855</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007693528795389</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="D7">
-        <v>0.9981716536042885</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="E7">
-        <v>0.9947020252352907</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="F7">
-        <v>1.001599530313724</v>
+        <v>1.014014592752161</v>
       </c>
       <c r="G7">
-        <v>1.007693528795389</v>
+        <v>1.072493305641209</v>
       </c>
       <c r="H7">
-        <v>0.998023819780938</v>
+        <v>0.9822968729827088</v>
       </c>
       <c r="I7">
-        <v>1.005018832996242</v>
+        <v>1.047004608479827</v>
       </c>
       <c r="J7">
-        <v>0.9947020252352907</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="K7">
-        <v>0.9947020252352907</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="L7">
-        <v>0.9971542047388436</v>
+        <v>0.9730117294020182</v>
       </c>
       <c r="M7">
-        <v>1.001658865986806</v>
+        <v>1.01553161507925</v>
       </c>
       <c r="N7">
-        <v>0.9947020252352907</v>
+        <v>0.9530157652377511</v>
       </c>
       <c r="O7">
-        <v>0.9981716536042885</v>
+        <v>0.9811203140417862</v>
       </c>
       <c r="P7">
-        <v>1.002932591199839</v>
+        <v>1.026806809841498</v>
       </c>
       <c r="Q7">
-        <v>0.9999152597955472</v>
+        <v>0.998325964560518</v>
       </c>
       <c r="R7">
-        <v>1.000189069211656</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="S7">
-        <v>1.002508016128828</v>
+        <v>1.023048411587415</v>
       </c>
       <c r="T7">
-        <v>1.000189069211656</v>
+        <v>1.002209794973582</v>
       </c>
       <c r="U7">
-        <v>1.000556518405444</v>
+        <v>1.005540249999999</v>
       </c>
       <c r="V7">
-        <v>0.999385619771413</v>
+        <v>0.9950353530475494</v>
       </c>
       <c r="W7">
-        <v>1.00050280768144</v>
+        <v>1.004811100452089</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00059128709084</v>
+        <v>1.23963788681058</v>
       </c>
       <c r="D8">
-        <v>0.9998503732997871</v>
+        <v>0.9361893109885945</v>
       </c>
       <c r="E8">
-        <v>0.9996090141731878</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="F8">
-        <v>1.000117103676048</v>
+        <v>1.045430806587816</v>
       </c>
       <c r="G8">
-        <v>1.00059128709084</v>
+        <v>1.23963788681058</v>
       </c>
       <c r="H8">
-        <v>0.9998531808991783</v>
+        <v>0.9422578673062515</v>
       </c>
       <c r="I8">
-        <v>1.000384147178883</v>
+        <v>1.15513847542685</v>
       </c>
       <c r="J8">
-        <v>0.9996090141731878</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="K8">
-        <v>0.9996090141731878</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="L8">
-        <v>0.9997803288556475</v>
+        <v>0.910639016309732</v>
       </c>
       <c r="M8">
-        <v>1.000126944775042</v>
+        <v>1.051257976019466</v>
       </c>
       <c r="N8">
-        <v>0.9996090141731878</v>
+        <v>0.8471768921643822</v>
       </c>
       <c r="O8">
-        <v>0.9998503732997871</v>
+        <v>0.9361893109885945</v>
       </c>
       <c r="P8">
-        <v>1.000220830195313</v>
+        <v>1.087913598899587</v>
       </c>
       <c r="Q8">
-        <v>0.9999886590374145</v>
+        <v>0.9937236435040304</v>
       </c>
       <c r="R8">
-        <v>1.000016891521271</v>
+        <v>1.007668029987852</v>
       </c>
       <c r="S8">
-        <v>1.000189535055223</v>
+        <v>1.075695057939547</v>
       </c>
       <c r="T8">
-        <v>1.000016891521271</v>
+        <v>1.007668029987852</v>
       </c>
       <c r="U8">
-        <v>1.000044404834714</v>
+        <v>1.018565516495756</v>
       </c>
       <c r="V8">
-        <v>0.9999573267024088</v>
+        <v>0.9842877916294812</v>
       </c>
       <c r="W8">
-        <v>1.000039047493577</v>
+        <v>1.015966028951709</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.012901733186595</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="D9">
-        <v>0.9969422340454663</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="E9">
-        <v>0.9911007662758088</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="F9">
-        <v>1.00268765540198</v>
+        <v>1.001599530313724</v>
       </c>
       <c r="G9">
-        <v>1.012901733186595</v>
+        <v>1.007693528795389</v>
       </c>
       <c r="H9">
-        <v>0.9966814192471165</v>
+        <v>0.998023819780938</v>
       </c>
       <c r="I9">
-        <v>1.008417812759083</v>
+        <v>1.005018832996242</v>
       </c>
       <c r="J9">
-        <v>0.9911007662758088</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="K9">
-        <v>0.9911007662758088</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="L9">
-        <v>0.995228589285313</v>
+        <v>0.9971542047388436</v>
       </c>
       <c r="M9">
-        <v>1.00278235006737</v>
+        <v>1.001658865986806</v>
       </c>
       <c r="N9">
-        <v>0.9911007662758088</v>
+        <v>0.9947020252352907</v>
       </c>
       <c r="O9">
-        <v>0.9969422340454663</v>
+        <v>0.9981716536042885</v>
       </c>
       <c r="P9">
-        <v>1.004921983616031</v>
+        <v>1.002932591199839</v>
       </c>
       <c r="Q9">
-        <v>0.9998622920564182</v>
+        <v>0.9999152597955472</v>
       </c>
       <c r="R9">
-        <v>1.00031491116929</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="S9">
-        <v>1.004208772433144</v>
+        <v>1.002508016128828</v>
       </c>
       <c r="T9">
-        <v>1.00031491116929</v>
+        <v>1.000189069211656</v>
       </c>
       <c r="U9">
-        <v>1.00093177089381</v>
+        <v>1.000556518405444</v>
       </c>
       <c r="V9">
-        <v>0.9989655699702098</v>
+        <v>0.999385619771413</v>
       </c>
       <c r="W9">
-        <v>1.000842820033592</v>
+        <v>1.00050280768144</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.243247245765553</v>
+        <v>1.00059128709084</v>
       </c>
       <c r="D10">
-        <v>0.9351655290773299</v>
+        <v>0.9998503732997871</v>
       </c>
       <c r="E10">
-        <v>0.8449865499734945</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="F10">
-        <v>1.046074955786711</v>
+        <v>1.000117103676048</v>
       </c>
       <c r="G10">
-        <v>1.243247245765553</v>
+        <v>1.00059128709084</v>
       </c>
       <c r="H10">
-        <v>0.941422995690935</v>
+        <v>0.9998531808991783</v>
       </c>
       <c r="I10">
-        <v>1.157464274623609</v>
+        <v>1.000384147178883</v>
       </c>
       <c r="J10">
-        <v>0.8449865499734945</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="K10">
-        <v>0.8449865499734945</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="L10">
-        <v>0.9092865068560856</v>
+        <v>0.9997803288556475</v>
       </c>
       <c r="M10">
-        <v>1.052026242120317</v>
+        <v>1.000126944775042</v>
       </c>
       <c r="N10">
-        <v>0.8449865499734945</v>
+        <v>0.9996090141731878</v>
       </c>
       <c r="O10">
-        <v>0.9351655290773299</v>
+        <v>0.9998503732997871</v>
       </c>
       <c r="P10">
-        <v>1.089206387421441</v>
+        <v>1.000220830195313</v>
       </c>
       <c r="Q10">
-        <v>0.9935958855988236</v>
+        <v>0.9999886590374145</v>
       </c>
       <c r="R10">
-        <v>1.007799774938793</v>
+        <v>1.000016891521271</v>
       </c>
       <c r="S10">
-        <v>1.0768130056544</v>
+        <v>1.000189535055223</v>
       </c>
       <c r="T10">
-        <v>1.007799774938793</v>
+        <v>1.000016891521271</v>
       </c>
       <c r="U10">
-        <v>1.018856391734174</v>
+        <v>1.000044404834714</v>
       </c>
       <c r="V10">
-        <v>0.984082423382038</v>
+        <v>0.9999573267024088</v>
       </c>
       <c r="W10">
-        <v>1.016209287486754</v>
+        <v>1.000039047493577</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.036844430094802</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="D11">
-        <v>0.9895618106513012</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="E11">
-        <v>0.9776185198579166</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="F11">
-        <v>1.006583553912415</v>
+        <v>1.00268765540198</v>
       </c>
       <c r="G11">
-        <v>1.036844430094802</v>
+        <v>1.012901733186595</v>
       </c>
       <c r="H11">
-        <v>0.991470602845962</v>
+        <v>0.9966814192471165</v>
       </c>
       <c r="I11">
-        <v>1.023744000806459</v>
+        <v>1.008417812759083</v>
       </c>
       <c r="J11">
-        <v>0.9776185198579166</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="K11">
-        <v>0.9776185198579166</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="L11">
-        <v>0.9861948630512984</v>
+        <v>0.995228589285313</v>
       </c>
       <c r="M11">
-        <v>1.007843228877973</v>
+        <v>1.00278235006737</v>
       </c>
       <c r="N11">
-        <v>0.9776185198579166</v>
+        <v>0.9911007662758088</v>
       </c>
       <c r="O11">
-        <v>0.9895618106513012</v>
+        <v>0.9969422340454663</v>
       </c>
       <c r="P11">
-        <v>1.013203120373052</v>
+        <v>1.004921983616031</v>
       </c>
       <c r="Q11">
-        <v>0.9987025197646371</v>
+        <v>0.9998622920564182</v>
       </c>
       <c r="R11">
-        <v>1.001341586868007</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="S11">
-        <v>1.011416489874692</v>
+        <v>1.004208772433144</v>
       </c>
       <c r="T11">
-        <v>1.001341586868006</v>
+        <v>1.00031491116929</v>
       </c>
       <c r="U11">
-        <v>1.002966997370498</v>
+        <v>1.00093177089381</v>
       </c>
       <c r="V11">
-        <v>0.9978973018679816</v>
+        <v>0.9989655699702098</v>
       </c>
       <c r="W11">
-        <v>1.002482626262266</v>
+        <v>1.000842820033592</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.073510688347368</v>
+        <v>1.243247245765553</v>
       </c>
       <c r="D12">
-        <v>0.9804578772210537</v>
+        <v>0.9351655290773299</v>
       </c>
       <c r="E12">
-        <v>0.9530630057473659</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="F12">
-        <v>1.013956891621054</v>
+        <v>1.046074955786711</v>
       </c>
       <c r="G12">
-        <v>1.073510688347368</v>
+        <v>1.243247245765553</v>
       </c>
       <c r="H12">
-        <v>0.9822692454947383</v>
+        <v>0.941422995690935</v>
       </c>
       <c r="I12">
-        <v>1.047595458221052</v>
+        <v>1.157464274623609</v>
       </c>
       <c r="J12">
-        <v>0.9530630057473659</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="K12">
-        <v>0.9530630057473659</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="L12">
-        <v>0.9725912490315769</v>
+        <v>0.9092865068560856</v>
       </c>
       <c r="M12">
-        <v>1.01572569986316</v>
+        <v>1.052026242120317</v>
       </c>
       <c r="N12">
-        <v>0.9530630057473659</v>
+        <v>0.8449865499734945</v>
       </c>
       <c r="O12">
-        <v>0.9804578772210537</v>
+        <v>0.9351655290773299</v>
       </c>
       <c r="P12">
-        <v>1.026984282784211</v>
+        <v>1.089206387421441</v>
       </c>
       <c r="Q12">
-        <v>0.9980917885421069</v>
+        <v>0.9935958855988236</v>
       </c>
       <c r="R12">
-        <v>1.002343857105263</v>
+        <v>1.007799774938793</v>
       </c>
       <c r="S12">
-        <v>1.023231421810527</v>
+        <v>1.0768130056544</v>
       </c>
       <c r="T12">
-        <v>1.002343857105263</v>
+        <v>1.007799774938793</v>
       </c>
       <c r="U12">
-        <v>1.005689317794737</v>
+        <v>1.018856391734174</v>
       </c>
       <c r="V12">
-        <v>0.9951640553852628</v>
+        <v>0.984082423382038</v>
       </c>
       <c r="W12">
-        <v>1.004896264443421</v>
+        <v>1.016209287486754</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9526347222431559</v>
+        <v>1.036844430094802</v>
       </c>
       <c r="D13">
-        <v>1.011979104788094</v>
+        <v>0.9895618106513012</v>
       </c>
       <c r="E13">
-        <v>1.031331895839029</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="F13">
-        <v>0.99061513019074</v>
+        <v>1.006583553912415</v>
       </c>
       <c r="G13">
-        <v>0.9526347222431559</v>
+        <v>1.036844430094802</v>
       </c>
       <c r="H13">
-        <v>1.011764773345253</v>
+        <v>0.991470602845962</v>
       </c>
       <c r="I13">
-        <v>0.9692266824235301</v>
+        <v>1.023744000806459</v>
       </c>
       <c r="J13">
-        <v>1.031331895839029</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="K13">
-        <v>1.031331895839029</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="L13">
-        <v>1.017596035773496</v>
+        <v>0.9861948630512984</v>
       </c>
       <c r="M13">
-        <v>0.9898306195768509</v>
+        <v>1.007843228877973</v>
       </c>
       <c r="N13">
-        <v>1.031331895839029</v>
+        <v>0.9776185198579166</v>
       </c>
       <c r="O13">
-        <v>1.011979104788094</v>
+        <v>0.9895618106513012</v>
       </c>
       <c r="P13">
-        <v>0.982306913515625</v>
+        <v>1.013203120373052</v>
       </c>
       <c r="Q13">
-        <v>1.000904862182473</v>
+        <v>0.9987025197646371</v>
       </c>
       <c r="R13">
-        <v>0.998648574290093</v>
+        <v>1.001341586868007</v>
       </c>
       <c r="S13">
-        <v>0.9848148155360338</v>
+        <v>1.011416489874692</v>
       </c>
       <c r="T13">
-        <v>0.998648574290093</v>
+        <v>1.001341586868006</v>
       </c>
       <c r="U13">
-        <v>0.9964440856117824</v>
+        <v>1.002966997370498</v>
       </c>
       <c r="V13">
-        <v>1.003421647657232</v>
+        <v>0.9978973018679816</v>
       </c>
       <c r="W13">
-        <v>0.9968723705225186</v>
+        <v>1.002482626262266</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.420376399999998</v>
+        <v>1.073510688347368</v>
       </c>
       <c r="D14">
-        <v>0.887797470000001</v>
+        <v>0.9804578772210537</v>
       </c>
       <c r="E14">
-        <v>0.7323862499999992</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="F14">
-        <v>1.079525899999999</v>
+        <v>1.013956891621054</v>
       </c>
       <c r="G14">
-        <v>1.420376399999998</v>
+        <v>1.073510688347368</v>
       </c>
       <c r="H14">
-        <v>0.8988550199999995</v>
+        <v>0.9822692454947383</v>
       </c>
       <c r="I14">
-        <v>1.2721004</v>
+        <v>1.047595458221052</v>
       </c>
       <c r="J14">
-        <v>0.7323862499999992</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="K14">
-        <v>0.7323862499999992</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="L14">
-        <v>0.8432138100000013</v>
+        <v>0.9725912490315769</v>
       </c>
       <c r="M14">
-        <v>1.0899016</v>
+        <v>1.01572569986316</v>
       </c>
       <c r="N14">
-        <v>0.7323862499999992</v>
+        <v>0.9530630057473659</v>
       </c>
       <c r="O14">
-        <v>0.887797470000001</v>
+        <v>0.9804578772210537</v>
       </c>
       <c r="P14">
-        <v>1.154086935</v>
+        <v>1.026984282784211</v>
       </c>
       <c r="Q14">
-        <v>0.9888495350000006</v>
+        <v>0.9980917885421069</v>
       </c>
       <c r="R14">
-        <v>1.01352004</v>
+        <v>1.002343857105263</v>
       </c>
       <c r="S14">
-        <v>1.132691823333333</v>
+        <v>1.023231421810527</v>
       </c>
       <c r="T14">
-        <v>1.01352004</v>
+        <v>1.002343857105263</v>
       </c>
       <c r="U14">
-        <v>1.03261543</v>
+        <v>1.005689317794737</v>
       </c>
       <c r="V14">
-        <v>0.9725695939999996</v>
+        <v>0.9951640553852628</v>
       </c>
       <c r="W14">
-        <v>1.02801960625</v>
+        <v>1.004896264443421</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.4203764</v>
+        <v>0.9526347222431559</v>
       </c>
       <c r="D15">
-        <v>0.88779747</v>
+        <v>1.011979104788094</v>
       </c>
       <c r="E15">
-        <v>0.73238625</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="F15">
-        <v>1.0795259</v>
+        <v>0.99061513019074</v>
       </c>
       <c r="G15">
-        <v>1.4203764</v>
+        <v>0.9526347222431559</v>
       </c>
       <c r="H15">
-        <v>0.8988550199999998</v>
+        <v>1.011764773345253</v>
       </c>
       <c r="I15">
-        <v>1.2721004</v>
+        <v>0.9692266824235301</v>
       </c>
       <c r="J15">
-        <v>0.73238625</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="K15">
-        <v>0.73238625</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="L15">
-        <v>0.8432138100000001</v>
+        <v>1.017596035773496</v>
       </c>
       <c r="M15">
-        <v>1.0899016</v>
+        <v>0.9898306195768509</v>
       </c>
       <c r="N15">
-        <v>0.73238625</v>
+        <v>1.031331895839029</v>
       </c>
       <c r="O15">
-        <v>0.88779747</v>
+        <v>1.011979104788094</v>
       </c>
       <c r="P15">
-        <v>1.154086935</v>
+        <v>0.982306913515625</v>
       </c>
       <c r="Q15">
-        <v>0.9888495349999999</v>
+        <v>1.000904862182473</v>
       </c>
       <c r="R15">
-        <v>1.01352004</v>
+        <v>0.998648574290093</v>
       </c>
       <c r="S15">
-        <v>1.132691823333333</v>
+        <v>0.9848148155360338</v>
       </c>
       <c r="T15">
-        <v>1.01352004</v>
+        <v>0.998648574290093</v>
       </c>
       <c r="U15">
-        <v>1.03261543</v>
+        <v>0.9964440856117824</v>
       </c>
       <c r="V15">
-        <v>0.9725695940000001</v>
+        <v>1.003421647657232</v>
       </c>
       <c r="W15">
-        <v>1.02801960625</v>
+        <v>0.9968723705225186</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,49 +1600,49 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.4203764</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="D16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="E16">
-        <v>0.73238625</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="F16">
-        <v>1.0795259</v>
+        <v>1.079525899999999</v>
       </c>
       <c r="G16">
-        <v>1.4203764</v>
+        <v>1.420376399999998</v>
       </c>
       <c r="H16">
-        <v>0.8988550199999998</v>
+        <v>0.8988550199999995</v>
       </c>
       <c r="I16">
         <v>1.2721004</v>
       </c>
       <c r="J16">
-        <v>0.73238625</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="K16">
-        <v>0.73238625</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="L16">
-        <v>0.8432138100000001</v>
+        <v>0.8432138100000013</v>
       </c>
       <c r="M16">
         <v>1.0899016</v>
       </c>
       <c r="N16">
-        <v>0.73238625</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="O16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="P16">
         <v>1.154086935</v>
       </c>
       <c r="Q16">
-        <v>0.9888495349999999</v>
+        <v>0.9888495350000006</v>
       </c>
       <c r="R16">
         <v>1.01352004</v>
@@ -1651,7 +1657,7 @@
         <v>1.03261543</v>
       </c>
       <c r="V16">
-        <v>0.9725695940000001</v>
+        <v>0.9725695939999996</v>
       </c>
       <c r="W16">
         <v>1.02801960625</v>
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0209422</v>
+        <v>1.4203764</v>
       </c>
       <c r="D17">
-        <v>1.0016507</v>
+        <v>0.88779747</v>
       </c>
       <c r="E17">
-        <v>0.97379624</v>
+        <v>0.73238625</v>
       </c>
       <c r="F17">
-        <v>1.0085957</v>
+        <v>1.0795259</v>
       </c>
       <c r="G17">
-        <v>1.0209422</v>
+        <v>1.4203764</v>
       </c>
       <c r="H17">
-        <v>0.99093873</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="I17">
-        <v>1.0148091</v>
+        <v>1.2721004</v>
       </c>
       <c r="J17">
-        <v>0.97379624</v>
+        <v>0.73238625</v>
       </c>
       <c r="K17">
-        <v>0.97379624</v>
+        <v>0.73238625</v>
       </c>
       <c r="L17">
-        <v>0.9929493</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="M17">
-        <v>1.0049139</v>
+        <v>1.0899016</v>
       </c>
       <c r="N17">
-        <v>0.97379624</v>
+        <v>0.73238625</v>
       </c>
       <c r="O17">
-        <v>1.0016507</v>
+        <v>0.88779747</v>
       </c>
       <c r="P17">
-        <v>1.01129645</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q17">
-        <v>1.0032823</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R17">
-        <v>0.9987963799999999</v>
+        <v>1.01352004</v>
       </c>
       <c r="S17">
-        <v>1.009168933333333</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T17">
-        <v>0.9987963799999999</v>
+        <v>1.01352004</v>
       </c>
       <c r="U17">
-        <v>1.00032576</v>
+        <v>1.03261543</v>
       </c>
       <c r="V17">
-        <v>0.9950198560000001</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W17">
-        <v>1.00107448375</v>
+        <v>1.02801960625</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.157734744657534</v>
+        <v>1.4203764</v>
       </c>
       <c r="D18">
-        <v>0.9626598902739728</v>
+        <v>0.88779747</v>
       </c>
       <c r="E18">
-        <v>0.8911215853424657</v>
+        <v>0.73238625</v>
       </c>
       <c r="F18">
-        <v>1.032886836986301</v>
+        <v>1.0795259</v>
       </c>
       <c r="G18">
-        <v>1.157734744657534</v>
+        <v>1.4203764</v>
       </c>
       <c r="H18">
-        <v>0.9594032183561644</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="I18">
-        <v>1.102922539726028</v>
+        <v>1.2721004</v>
       </c>
       <c r="J18">
-        <v>0.8911215853424657</v>
+        <v>0.73238625</v>
       </c>
       <c r="K18">
-        <v>0.8911215853424657</v>
+        <v>0.73238625</v>
       </c>
       <c r="L18">
-        <v>0.9416700165753423</v>
+        <v>0.8432138100000001</v>
       </c>
       <c r="M18">
-        <v>1.034019244383562</v>
+        <v>1.0899016</v>
       </c>
       <c r="N18">
-        <v>0.8911215853424657</v>
+        <v>0.73238625</v>
       </c>
       <c r="O18">
-        <v>0.9626598902739728</v>
+        <v>0.88779747</v>
       </c>
       <c r="P18">
-        <v>1.060197317465754</v>
+        <v>1.154086935</v>
       </c>
       <c r="Q18">
-        <v>0.9983395673287676</v>
+        <v>0.9888495349999999</v>
       </c>
       <c r="R18">
-        <v>1.003838740091324</v>
+        <v>1.01352004</v>
       </c>
       <c r="S18">
-        <v>1.051471293105023</v>
+        <v>1.132691823333333</v>
       </c>
       <c r="T18">
-        <v>1.003838740091324</v>
+        <v>1.01352004</v>
       </c>
       <c r="U18">
-        <v>1.011383866164384</v>
+        <v>1.03261543</v>
       </c>
       <c r="V18">
-        <v>0.9873314100000001</v>
+        <v>0.9725695940000001</v>
       </c>
       <c r="W18">
-        <v>1.010302259537671</v>
+        <v>1.02801960625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.168102178421053</v>
+        <v>1.0209422</v>
       </c>
       <c r="D19">
-        <v>0.9597047947368422</v>
+        <v>1.0016507</v>
       </c>
       <c r="E19">
-        <v>0.8848557168421052</v>
+        <v>0.97379624</v>
       </c>
       <c r="F19">
-        <v>1.034727852631579</v>
+        <v>1.0085957</v>
       </c>
       <c r="G19">
-        <v>1.168102178421053</v>
+        <v>1.0209422</v>
       </c>
       <c r="H19">
-        <v>0.957013157894737</v>
+        <v>0.99093873</v>
       </c>
       <c r="I19">
-        <v>1.109600613157895</v>
+        <v>1.0148091</v>
       </c>
       <c r="J19">
-        <v>0.8848557168421052</v>
+        <v>0.97379624</v>
       </c>
       <c r="K19">
-        <v>0.8848557168421052</v>
+        <v>0.97379624</v>
       </c>
       <c r="L19">
-        <v>0.937783587368421</v>
+        <v>0.9929493</v>
       </c>
       <c r="M19">
-        <v>1.036225126842105</v>
+        <v>1.0049139</v>
       </c>
       <c r="N19">
-        <v>0.8848557168421052</v>
+        <v>0.97379624</v>
       </c>
       <c r="O19">
-        <v>0.9597047947368422</v>
+        <v>1.0016507</v>
       </c>
       <c r="P19">
-        <v>1.063903486578947</v>
+        <v>1.01129645</v>
       </c>
       <c r="Q19">
-        <v>0.9979649607894737</v>
+        <v>1.0032823</v>
       </c>
       <c r="R19">
-        <v>1.004220896666667</v>
+        <v>0.9987963799999999</v>
       </c>
       <c r="S19">
-        <v>1.054677366666667</v>
+        <v>1.009168933333333</v>
       </c>
       <c r="T19">
-        <v>1.004220896666667</v>
+        <v>0.9987963799999999</v>
       </c>
       <c r="U19">
-        <v>1.012221954210526</v>
+        <v>1.00032576</v>
       </c>
       <c r="V19">
-        <v>0.9867487067368422</v>
+        <v>0.9950198560000001</v>
       </c>
       <c r="W19">
-        <v>1.011001628486842</v>
+        <v>1.00107448375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.168102178421053</v>
+        <v>1.157734744657534</v>
       </c>
       <c r="D20">
-        <v>0.9597047947368422</v>
+        <v>0.9626598902739728</v>
       </c>
       <c r="E20">
-        <v>0.8848557168421052</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="F20">
-        <v>1.034727852631579</v>
+        <v>1.032886836986301</v>
       </c>
       <c r="G20">
-        <v>1.168102178421053</v>
+        <v>1.157734744657534</v>
       </c>
       <c r="H20">
-        <v>0.957013157894737</v>
+        <v>0.9594032183561644</v>
       </c>
       <c r="I20">
-        <v>1.109600613157895</v>
+        <v>1.102922539726028</v>
       </c>
       <c r="J20">
-        <v>0.8848557168421052</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="K20">
-        <v>0.8848557168421052</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="L20">
-        <v>0.937783587368421</v>
+        <v>0.9416700165753423</v>
       </c>
       <c r="M20">
-        <v>1.036225126842105</v>
+        <v>1.034019244383562</v>
       </c>
       <c r="N20">
-        <v>0.8848557168421052</v>
+        <v>0.8911215853424657</v>
       </c>
       <c r="O20">
-        <v>0.9597047947368422</v>
+        <v>0.9626598902739728</v>
       </c>
       <c r="P20">
-        <v>1.063903486578947</v>
+        <v>1.060197317465754</v>
       </c>
       <c r="Q20">
-        <v>0.9979649607894737</v>
+        <v>0.9983395673287676</v>
       </c>
       <c r="R20">
-        <v>1.004220896666667</v>
+        <v>1.003838740091324</v>
       </c>
       <c r="S20">
-        <v>1.054677366666667</v>
+        <v>1.051471293105023</v>
       </c>
       <c r="T20">
-        <v>1.004220896666667</v>
+        <v>1.003838740091324</v>
       </c>
       <c r="U20">
-        <v>1.012221954210526</v>
+        <v>1.011383866164384</v>
       </c>
       <c r="V20">
-        <v>0.9867487067368422</v>
+        <v>0.9873314100000001</v>
       </c>
       <c r="W20">
-        <v>1.011001628486842</v>
+        <v>1.010302259537671</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.963735439783223</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="D21">
-        <v>1.014369839509032</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="E21">
-        <v>1.014747592515798</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="F21">
-        <v>0.9961414537404596</v>
+        <v>1.034727852631579</v>
       </c>
       <c r="G21">
-        <v>0.963735439783223</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="H21">
-        <v>1.006119641121082</v>
+        <v>0.957013157894737</v>
       </c>
       <c r="I21">
-        <v>0.9773388722374375</v>
+        <v>1.109600613157895</v>
       </c>
       <c r="J21">
-        <v>1.014747592515798</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="K21">
-        <v>1.014747592515798</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="L21">
-        <v>1.014017815243453</v>
+        <v>0.937783587368421</v>
       </c>
       <c r="M21">
-        <v>0.9925263924631762</v>
+        <v>1.036225126842105</v>
       </c>
       <c r="N21">
-        <v>1.014747592515798</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="O21">
-        <v>1.014369839509032</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="P21">
-        <v>0.9890526396461276</v>
+        <v>1.063903486578947</v>
       </c>
       <c r="Q21">
-        <v>1.003448115986104</v>
+        <v>0.9979649607894737</v>
       </c>
       <c r="R21">
-        <v>0.9976176239360176</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="S21">
-        <v>0.9902105572518104</v>
+        <v>1.054677366666667</v>
       </c>
       <c r="T21">
-        <v>0.9976176239360176</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="U21">
-        <v>0.9963448160678072</v>
+        <v>1.012221954210526</v>
       </c>
       <c r="V21">
-        <v>1.000025371357405</v>
+        <v>0.9867487067368422</v>
       </c>
       <c r="W21">
-        <v>0.9973746308267076</v>
+        <v>1.011001628486842</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.993306383595565</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="D22">
-        <v>0.9994418808283211</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="E22">
-        <v>1.008429562082902</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="F22">
-        <v>0.9972331013818057</v>
+        <v>1.034727852631579</v>
       </c>
       <c r="G22">
-        <v>0.993306383595565</v>
+        <v>1.168102178421053</v>
       </c>
       <c r="H22">
-        <v>1.002913139413011</v>
+        <v>0.957013157894737</v>
       </c>
       <c r="I22">
-        <v>0.9952613996017942</v>
+        <v>1.109600613157895</v>
       </c>
       <c r="J22">
-        <v>1.008429562082902</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="K22">
-        <v>1.008429562082902</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="L22">
-        <v>1.002250371084115</v>
+        <v>0.937783587368421</v>
       </c>
       <c r="M22">
-        <v>0.9984275820655333</v>
+        <v>1.036225126842105</v>
       </c>
       <c r="N22">
-        <v>1.008429562082902</v>
+        <v>0.8848557168421052</v>
       </c>
       <c r="O22">
-        <v>0.9994418808283211</v>
+        <v>0.9597047947368422</v>
       </c>
       <c r="P22">
-        <v>0.996374132211943</v>
+        <v>1.063903486578947</v>
       </c>
       <c r="Q22">
-        <v>0.9989347314469272</v>
+        <v>0.9979649607894737</v>
       </c>
       <c r="R22">
-        <v>1.000392608835596</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="S22">
-        <v>0.997058615496473</v>
+        <v>1.054677366666667</v>
       </c>
       <c r="T22">
-        <v>1.000392608835596</v>
+        <v>1.004220896666667</v>
       </c>
       <c r="U22">
-        <v>0.9999013521430802</v>
+        <v>1.012221954210526</v>
       </c>
       <c r="V22">
-        <v>1.001606994131044</v>
+        <v>0.9867487067368422</v>
       </c>
       <c r="W22">
-        <v>0.9996579275066309</v>
+        <v>1.011001628486842</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.92505585301876</v>
+        <v>0.963735439783223</v>
       </c>
       <c r="D23">
-        <v>1.016711760342585</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="E23">
-        <v>1.053561470836624</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="F23">
-        <v>0.9837156379439094</v>
+        <v>0.9961414537404596</v>
       </c>
       <c r="G23">
-        <v>0.92505585301876</v>
+        <v>0.963735439783223</v>
       </c>
       <c r="H23">
-        <v>1.019860629219225</v>
+        <v>1.006119641121082</v>
       </c>
       <c r="I23">
-        <v>0.9509203947465752</v>
+        <v>0.9773388722374375</v>
       </c>
       <c r="J23">
-        <v>1.053561470836624</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="K23">
-        <v>1.053561470836624</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="L23">
-        <v>1.027606115002572</v>
+        <v>1.014017815243453</v>
       </c>
       <c r="M23">
-        <v>0.9837746331294553</v>
+        <v>0.9925263924631762</v>
       </c>
       <c r="N23">
-        <v>1.053561470836624</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="O23">
-        <v>1.016711760342585</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="P23">
-        <v>0.9708838066806723</v>
+        <v>0.9890526396461276</v>
       </c>
       <c r="Q23">
-        <v>1.00024319673602</v>
+        <v>1.003448115986104</v>
       </c>
       <c r="R23">
-        <v>0.9984430280659896</v>
+        <v>0.9976176239360176</v>
       </c>
       <c r="S23">
-        <v>0.9751807488302666</v>
+        <v>0.9902105572518104</v>
       </c>
       <c r="T23">
-        <v>0.9984430280659896</v>
+        <v>0.9976176239360176</v>
       </c>
       <c r="U23">
-        <v>0.9947759293318561</v>
+        <v>0.9963448160678072</v>
       </c>
       <c r="V23">
-        <v>1.00653303763281</v>
+        <v>1.000025371357405</v>
       </c>
       <c r="W23">
-        <v>0.9951508117799632</v>
+        <v>0.9973746308267076</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9796151116138745</v>
+        <v>0.993306383595565</v>
       </c>
       <c r="D24">
-        <v>1.005927421620521</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="E24">
-        <v>1.012112248171304</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="F24">
-        <v>0.9964549868796057</v>
+        <v>0.9972331013818057</v>
       </c>
       <c r="G24">
-        <v>0.9796151116138745</v>
+        <v>0.993306383595565</v>
       </c>
       <c r="H24">
-        <v>1.004634448438814</v>
+        <v>1.002913139413011</v>
       </c>
       <c r="I24">
-        <v>0.98688954647551</v>
+        <v>0.9952613996017942</v>
       </c>
       <c r="J24">
-        <v>1.012112248171304</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="K24">
-        <v>1.012112248171304</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="L24">
-        <v>1.007653939649781</v>
+        <v>1.002250371084115</v>
       </c>
       <c r="M24">
-        <v>0.9956697340406946</v>
+        <v>0.9984275820655333</v>
       </c>
       <c r="N24">
-        <v>1.012112248171304</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="O24">
-        <v>1.005927421620521</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="P24">
-        <v>0.9927712666171977</v>
+        <v>0.996374132211943</v>
       </c>
       <c r="Q24">
-        <v>1.000798577830608</v>
+        <v>0.9989347314469272</v>
       </c>
       <c r="R24">
-        <v>0.9992182604685665</v>
+        <v>1.000392608835596</v>
       </c>
       <c r="S24">
-        <v>0.99373742242503</v>
+        <v>0.997058615496473</v>
       </c>
       <c r="T24">
-        <v>0.9992182604685665</v>
+        <v>1.000392608835596</v>
       </c>
       <c r="U24">
-        <v>0.9983311288615986</v>
+        <v>0.9999013521430802</v>
       </c>
       <c r="V24">
-        <v>1.00108735272354</v>
+        <v>1.001606994131044</v>
       </c>
       <c r="W24">
-        <v>0.9986196796112632</v>
+        <v>0.9996579275066309</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.963735439783223</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="D25">
-        <v>1.014369839509032</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="E25">
-        <v>1.014747592515798</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="F25">
-        <v>0.9961414537404596</v>
+        <v>0.9837156379439094</v>
       </c>
       <c r="G25">
-        <v>0.963735439783223</v>
+        <v>0.92505585301876</v>
       </c>
       <c r="H25">
-        <v>1.006119641121082</v>
+        <v>1.019860629219225</v>
       </c>
       <c r="I25">
-        <v>0.9773388722374375</v>
+        <v>0.9509203947465752</v>
       </c>
       <c r="J25">
-        <v>1.014747592515798</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="K25">
-        <v>1.014747592515798</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="L25">
-        <v>1.014017815243453</v>
+        <v>1.027606115002572</v>
       </c>
       <c r="M25">
-        <v>0.9925263924631761</v>
+        <v>0.9837746331294553</v>
       </c>
       <c r="N25">
-        <v>1.014747592515798</v>
+        <v>1.053561470836624</v>
       </c>
       <c r="O25">
-        <v>1.014369839509032</v>
+        <v>1.016711760342585</v>
       </c>
       <c r="P25">
-        <v>0.9890526396461276</v>
+        <v>0.9708838066806723</v>
       </c>
       <c r="Q25">
-        <v>1.003448115986104</v>
+        <v>1.00024319673602</v>
       </c>
       <c r="R25">
-        <v>0.9976176239360176</v>
+        <v>0.9984430280659896</v>
       </c>
       <c r="S25">
-        <v>0.9902105572518104</v>
+        <v>0.9751807488302666</v>
       </c>
       <c r="T25">
-        <v>0.9976176239360176</v>
+        <v>0.9984430280659896</v>
       </c>
       <c r="U25">
-        <v>0.9963448160678072</v>
+        <v>0.9947759293318561</v>
       </c>
       <c r="V25">
-        <v>1.000025371357405</v>
+        <v>1.00653303763281</v>
       </c>
       <c r="W25">
-        <v>0.9973746308267076</v>
+        <v>0.9951508117799632</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9933063835955649</v>
+        <v>0.9796151116138745</v>
       </c>
       <c r="D26">
-        <v>0.9994418808283211</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="E26">
-        <v>1.008429562082902</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="F26">
-        <v>0.9972331013818057</v>
+        <v>0.9964549868796057</v>
       </c>
       <c r="G26">
-        <v>0.9933063835955649</v>
+        <v>0.9796151116138745</v>
       </c>
       <c r="H26">
-        <v>1.002913139413011</v>
+        <v>1.004634448438814</v>
       </c>
       <c r="I26">
-        <v>0.9952613996017942</v>
+        <v>0.98688954647551</v>
       </c>
       <c r="J26">
-        <v>1.008429562082902</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="K26">
-        <v>1.008429562082902</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="L26">
-        <v>1.002250371084115</v>
+        <v>1.007653939649781</v>
       </c>
       <c r="M26">
-        <v>0.9984275820655333</v>
+        <v>0.9956697340406946</v>
       </c>
       <c r="N26">
-        <v>1.008429562082902</v>
+        <v>1.012112248171304</v>
       </c>
       <c r="O26">
-        <v>0.9994418808283211</v>
+        <v>1.005927421620521</v>
       </c>
       <c r="P26">
-        <v>0.996374132211943</v>
+        <v>0.9927712666171977</v>
       </c>
       <c r="Q26">
-        <v>0.9989347314469272</v>
+        <v>1.000798577830608</v>
       </c>
       <c r="R26">
-        <v>1.000392608835596</v>
+        <v>0.9992182604685665</v>
       </c>
       <c r="S26">
-        <v>0.997058615496473</v>
+        <v>0.99373742242503</v>
       </c>
       <c r="T26">
-        <v>1.000392608835596</v>
+        <v>0.9992182604685665</v>
       </c>
       <c r="U26">
-        <v>0.9999013521430802</v>
+        <v>0.9983311288615986</v>
       </c>
       <c r="V26">
-        <v>1.001606994131044</v>
+        <v>1.00108735272354</v>
       </c>
       <c r="W26">
-        <v>0.9996579275066309</v>
+        <v>0.9986196796112632</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.024628540296642</v>
+        <v>0.963735439783223</v>
       </c>
       <c r="D27">
-        <v>0.9940048457138401</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="E27">
-        <v>0.9832929756841889</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="F27">
-        <v>1.005029388252175</v>
+        <v>0.9961414537404596</v>
       </c>
       <c r="G27">
-        <v>1.024628540296642</v>
+        <v>0.963735439783223</v>
       </c>
       <c r="H27">
-        <v>0.993752856513907</v>
+        <v>1.006119641121082</v>
       </c>
       <c r="I27">
-        <v>1.016041686398808</v>
+        <v>0.9773388722374375</v>
       </c>
       <c r="J27">
-        <v>0.9832929756841889</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="K27">
-        <v>0.9832929756841889</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="L27">
-        <v>0.9908751033011152</v>
+        <v>1.014017815243453</v>
       </c>
       <c r="M27">
-        <v>1.0053018174538</v>
+        <v>0.9925263924631761</v>
       </c>
       <c r="N27">
-        <v>0.9832929756841889</v>
+        <v>1.014747592515798</v>
       </c>
       <c r="O27">
-        <v>0.9940048457138401</v>
+        <v>1.014369839509032</v>
       </c>
       <c r="P27">
-        <v>1.009316693005241</v>
+        <v>0.9890526396461276</v>
       </c>
       <c r="Q27">
-        <v>0.9996533315838203</v>
+        <v>1.003448115986104</v>
       </c>
       <c r="R27">
-        <v>1.00064212056489</v>
+        <v>0.9976176239360176</v>
       </c>
       <c r="S27">
-        <v>1.007978401154761</v>
+        <v>0.9902105572518104</v>
       </c>
       <c r="T27">
-        <v>1.00064212056489</v>
+        <v>0.9976176239360176</v>
       </c>
       <c r="U27">
-        <v>1.001807044787118</v>
+        <v>0.9963448160678072</v>
       </c>
       <c r="V27">
-        <v>0.9981042309665321</v>
+        <v>1.000025371357405</v>
       </c>
       <c r="W27">
-        <v>1.00161590170181</v>
+        <v>0.9973746308267076</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.01068436835141</v>
+        <v>0.9933063835955649</v>
       </c>
       <c r="D28">
-        <v>0.9990660449804287</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="E28">
-        <v>0.9897888390056322</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="F28">
-        <v>1.003248647264372</v>
+        <v>0.9972331013818057</v>
       </c>
       <c r="G28">
-        <v>1.01068436835141</v>
+        <v>0.9933063835955649</v>
       </c>
       <c r="H28">
-        <v>0.9963638310877883</v>
+        <v>1.002913139413011</v>
       </c>
       <c r="I28">
-        <v>1.007247819337628</v>
+        <v>0.9952613996017942</v>
       </c>
       <c r="J28">
-        <v>0.9897888390056322</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="K28">
-        <v>0.9897888390056322</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="L28">
-        <v>0.9962164034494032</v>
+        <v>1.002250371084115</v>
       </c>
       <c r="M28">
-        <v>1.002400226879678</v>
+        <v>0.9984275820655333</v>
       </c>
       <c r="N28">
-        <v>0.9897888390056322</v>
+        <v>1.008429562082902</v>
       </c>
       <c r="O28">
-        <v>0.9990660449804287</v>
+        <v>0.9994418808283211</v>
       </c>
       <c r="P28">
-        <v>1.004875206665919</v>
+        <v>0.996374132211943</v>
       </c>
       <c r="Q28">
-        <v>1.000733135930054</v>
+        <v>0.9989347314469272</v>
       </c>
       <c r="R28">
-        <v>0.9998464174458235</v>
+        <v>1.000392608835596</v>
       </c>
       <c r="S28">
-        <v>1.004050213403839</v>
+        <v>0.997058615496473</v>
       </c>
       <c r="T28">
-        <v>0.9998464174458236</v>
+        <v>1.000392608835596</v>
       </c>
       <c r="U28">
-        <v>1.000484869804287</v>
+        <v>0.9999013521430802</v>
       </c>
       <c r="V28">
-        <v>0.9983456636445563</v>
+        <v>1.001606994131044</v>
       </c>
       <c r="W28">
-        <v>1.000627022544543</v>
+        <v>0.9996579275066309</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="D29">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="E29">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="F29">
+        <v>1.005029388252175</v>
+      </c>
+      <c r="G29">
+        <v>1.024628540296642</v>
+      </c>
+      <c r="H29">
+        <v>0.993752856513907</v>
+      </c>
+      <c r="I29">
+        <v>1.016041686398808</v>
+      </c>
+      <c r="J29">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="K29">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="L29">
+        <v>0.9908751033011152</v>
+      </c>
+      <c r="M29">
+        <v>1.0053018174538</v>
+      </c>
+      <c r="N29">
+        <v>0.9832929756841889</v>
+      </c>
+      <c r="O29">
+        <v>0.9940048457138401</v>
+      </c>
+      <c r="P29">
+        <v>1.009316693005241</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996533315838203</v>
+      </c>
+      <c r="R29">
+        <v>1.00064212056489</v>
+      </c>
+      <c r="S29">
+        <v>1.007978401154761</v>
+      </c>
+      <c r="T29">
+        <v>1.00064212056489</v>
+      </c>
+      <c r="U29">
+        <v>1.001807044787118</v>
+      </c>
+      <c r="V29">
+        <v>0.9981042309665321</v>
+      </c>
+      <c r="W29">
+        <v>1.00161590170181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.01068436835141</v>
+      </c>
+      <c r="D30">
+        <v>0.9990660449804287</v>
+      </c>
+      <c r="E30">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="F30">
+        <v>1.003248647264372</v>
+      </c>
+      <c r="G30">
+        <v>1.01068436835141</v>
+      </c>
+      <c r="H30">
+        <v>0.9963638310877883</v>
+      </c>
+      <c r="I30">
+        <v>1.007247819337628</v>
+      </c>
+      <c r="J30">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="K30">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="L30">
+        <v>0.9962164034494032</v>
+      </c>
+      <c r="M30">
+        <v>1.002400226879678</v>
+      </c>
+      <c r="N30">
+        <v>0.9897888390056322</v>
+      </c>
+      <c r="O30">
+        <v>0.9990660449804287</v>
+      </c>
+      <c r="P30">
+        <v>1.004875206665919</v>
+      </c>
+      <c r="Q30">
+        <v>1.000733135930054</v>
+      </c>
+      <c r="R30">
+        <v>0.9998464174458235</v>
+      </c>
+      <c r="S30">
+        <v>1.004050213403839</v>
+      </c>
+      <c r="T30">
+        <v>0.9998464174458236</v>
+      </c>
+      <c r="U30">
+        <v>1.000484869804287</v>
+      </c>
+      <c r="V30">
+        <v>0.9983456636445563</v>
+      </c>
+      <c r="W30">
+        <v>1.000627022544543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.93427825215649</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.019018088069463</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.039214206429792</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9885117662537631</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.93427825215649</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.014992848993604</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9577153773118796</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.039214206429792</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.039214206429792</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.024666954473673</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9860335068299773</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.039214206429792</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.019018088069463</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9766481701129768</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.00252579744972</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9975035155519151</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9797766156853104</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.997503515551915</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.9946360133714305</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.003551651983103</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.9955538750648303</v>
       </c>
     </row>
